--- a/Experiments/Part1-Uniform-MajorMinor/Peer-distance/Uniform results/Graphs.xlsx
+++ b/Experiments/Part1-Uniform-MajorMinor/Peer-distance/Uniform results/Graphs.xlsx
@@ -126,10 +126,10 @@
     <t xml:space="preserve">Taste 1 </t>
   </si>
   <si>
-    <t>Taste 1</t>
+    <t>Taste 1(avg)</t>
   </si>
   <si>
-    <t>Taste 0</t>
+    <t>Taste 0(avg)</t>
   </si>
 </sst>
 </file>
@@ -205,7 +205,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Taste 1</c:v>
+                  <c:v>Taste 1(avg)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -473,7 +473,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Taste 0</c:v>
+                  <c:v>Taste 0(avg)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -742,20 +742,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2100536424"/>
-        <c:axId val="-2101195176"/>
+        <c:axId val="2104678360"/>
+        <c:axId val="2101319064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2100536424"/>
+        <c:axId val="2104678360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2101195176"/>
+        <c:crossAx val="2101319064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -763,18 +782,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2101195176"/>
+        <c:axId val="2101319064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Accumulated Payoff</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2100536424"/>
+        <c:crossAx val="2104678360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -821,11 +859,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Taste 1 </c:v>
+                  <c:v> Taste 0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -833,497 +871,248 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$81</c:f>
+              <c:f>Sheet1!$B$2:$B$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>2.56666666666666</c:v>
+                  <c:v>2.83333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.71666666666666</c:v>
+                  <c:v>8.21666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.0333333333333</c:v>
+                  <c:v>14.2333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.9</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.9333333333333</c:v>
+                  <c:v>28.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.9166666666666</c:v>
+                  <c:v>36.0833333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41.4166666666666</c:v>
+                  <c:v>44.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49.4166666666666</c:v>
+                  <c:v>51.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56.9166666666666</c:v>
+                  <c:v>58.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>65.6666666666666</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>72.6666666666666</c:v>
+                  <c:v>73.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>79.4166666666666</c:v>
+                  <c:v>81.25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>86.6666666666666</c:v>
+                  <c:v>88.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>93.4</c:v>
+                  <c:v>96.6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>100.65</c:v>
+                  <c:v>104.15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>106.95</c:v>
+                  <c:v>112.05</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>113.45</c:v>
+                  <c:v>120.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>120.433333333333</c:v>
+                  <c:v>127.433333333333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>127.683333333333</c:v>
+                  <c:v>134.45</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>134.183333333333</c:v>
+                  <c:v>142.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>141.166666666666</c:v>
+                  <c:v>149.633333333333</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>149.416666666666</c:v>
+                  <c:v>156.116666666666</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>157.75</c:v>
+                  <c:v>161.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>165.783333333333</c:v>
+                  <c:v>167.816666666666</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>174.05</c:v>
+                  <c:v>173.016666666666</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>179.933333333333</c:v>
+                  <c:v>181.066666666666</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>185.533333333333</c:v>
+                  <c:v>189.133333333333</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>192.716666666666</c:v>
+                  <c:v>195.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>199.966666666666</c:v>
+                  <c:v>201.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>205.9</c:v>
+                  <c:v>206.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>212.0</c:v>
+                  <c:v>211.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>218.55</c:v>
+                  <c:v>216.85</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>225.233333333333</c:v>
+                  <c:v>222.5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>229.15</c:v>
+                  <c:v>229.65</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>234.85</c:v>
+                  <c:v>235.816666666666</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>239.666666666666</c:v>
+                  <c:v>239.933333333333</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>243.6</c:v>
+                  <c:v>244.133333333333</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>248.433333333333</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>253.366666666666</c:v>
+                  <c:v>252.433333333333</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>258.833333333333</c:v>
+                  <c:v>256.033333333333</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>263.716666666666</c:v>
+                  <c:v>259.883333333333</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>267.4</c:v>
+                  <c:v>263.2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>270.416666666666</c:v>
+                  <c:v>264.516666666666</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>271.25</c:v>
+                  <c:v>267.283333333333</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>272.8</c:v>
+                  <c:v>268.6</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>274.033333333333</c:v>
+                  <c:v>269.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>272.566666666666</c:v>
+                  <c:v>268.566666666666</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>272.55</c:v>
+                  <c:v>268.383333333333</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>271.266666666666</c:v>
+                  <c:v>267.133333333333</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>269.416666666666</c:v>
+                  <c:v>266.716666666666</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>267.083333333333</c:v>
+                  <c:v>267.383333333333</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>265.583333333333</c:v>
+                  <c:v>266.216666666666</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>263.5</c:v>
+                  <c:v>264.766666666666</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>260.75</c:v>
+                  <c:v>263.116666666666</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>257.666666666666</c:v>
+                  <c:v>261.866666666666</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>255.75</c:v>
+                  <c:v>259.45</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>253.583333333333</c:v>
+                  <c:v>256.95</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>251.916666666666</c:v>
+                  <c:v>254.616666666666</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>250.5</c:v>
+                  <c:v>252.7</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>248.0</c:v>
+                  <c:v>250.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>245.333333333333</c:v>
+                  <c:v>248.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>243.166666666666</c:v>
+                  <c:v>245.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="62">
+                  <c:v>243.25</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>240.75</c:v>
                 </c:pt>
-                <c:pt idx="63">
-                  <c:v>238.25</c:v>
-                </c:pt>
                 <c:pt idx="64">
+                  <c:v>238.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>236.0</c:v>
                 </c:pt>
-                <c:pt idx="65">
-                  <c:v>234.0</c:v>
-                </c:pt>
                 <c:pt idx="66">
-                  <c:v>231.333333333333</c:v>
+                  <c:v>233.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>228.833333333333</c:v>
+                  <c:v>231.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>226.416666666666</c:v>
+                  <c:v>228.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>223.666666666666</c:v>
+                  <c:v>226.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>220.916666666666</c:v>
+                  <c:v>224.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>218.166666666666</c:v>
+                  <c:v>221.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>215.833333333333</c:v>
+                  <c:v>219.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>213.666666666666</c:v>
+                  <c:v>216.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>211.416666666666</c:v>
+                  <c:v>213.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>209.0</c:v>
+                  <c:v>211.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>207.0</c:v>
+                  <c:v>208.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>204.666666666666</c:v>
+                  <c:v>205.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>203.083333333333</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>200.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$D$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
-                <c:pt idx="0">
-                  <c:v>1.83333333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.91666666666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.3333333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.5166666666666</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>34.0666666666666</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41.0666666666666</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>49.1166666666666</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>55.3666666666666</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>62.3666666666666</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>71.1166666666666</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>78.3666666666666</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>86.3666666666666</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>94.1166666666666</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>102.616666666666</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>111.216666666666</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>117.983333333333</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>126.466666666666</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>132.466666666666</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>139.9</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>147.616666666666</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>155.35</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>162.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>167.383333333333</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>174.55</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>181.3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>186.95</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>192.85</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>198.05</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>204.1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>209.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>215.633333333333</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>221.9</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>227.65</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>236.5</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>242.95</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>247.433333333333</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>250.6</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>254.866666666666</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>259.416666666666</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>263.266666666666</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>265.466666666666</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>267.1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>269.083333333333</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>271.816666666666</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>271.516666666666</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>272.183333333333</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>271.3</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>270.8</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>270.216666666666</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>268.066666666666</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>266.15</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>264.816666666666</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>263.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>261.4</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>259.3</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>256.833333333333</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>254.25</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>251.666666666666</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>249.416666666666</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>247.083333333333</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>244.5</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>242.083333333333</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>239.5</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>237.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>235.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>232.5</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>229.75</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>227.25</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>224.5</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>222.25</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>219.75</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>217.666666666666</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>215.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>212.25</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>209.833333333333</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>207.166666666666</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>204.666666666666</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>202.75</c:v>
+                  <c:v>201.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -1338,11 +1127,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Taste 1 </c:v>
+                  <c:v> Taste 0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1350,497 +1139,248 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$81</c:f>
+              <c:f>Sheet1!$E$2:$E$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>2.56666666666666</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.71666666666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.0333333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27.9333333333333</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>34.9166666666666</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41.4166666666666</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>49.4166666666666</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>56.9166666666666</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>65.6666666666666</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>72.6666666666666</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>79.4166666666666</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>86.6666666666666</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>93.4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>100.65</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>106.95</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>113.45</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>120.433333333333</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>127.683333333333</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>134.183333333333</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>141.166666666666</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>149.416666666666</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>157.75</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>165.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>174.05</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>179.933333333333</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>185.533333333333</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>192.716666666666</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>199.966666666666</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>205.9</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>212.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>218.55</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>225.233333333333</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>229.15</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>234.85</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>239.666666666666</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>243.6</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>248.433333333333</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>253.366666666666</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>258.833333333333</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>263.716666666666</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>267.4</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>270.416666666666</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>271.25</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>272.8</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>274.033333333333</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>272.566666666666</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>272.55</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>271.266666666666</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>269.416666666666</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>267.083333333333</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>265.583333333333</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>263.5</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>260.75</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>257.666666666666</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>255.75</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>253.583333333333</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>251.916666666666</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>250.5</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>248.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>245.333333333333</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>243.166666666666</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>240.75</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>238.25</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>236.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>234.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>231.333333333333</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>228.833333333333</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>226.416666666666</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>223.666666666666</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>220.916666666666</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>218.166666666666</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>215.833333333333</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>213.666666666666</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>211.416666666666</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>209.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>207.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>204.666666666666</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>203.083333333333</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>200.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$G$2:$G$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
-                <c:pt idx="0">
-                  <c:v>2.03333333333333</c:v>
+                  <c:v>2.36666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7.48333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.4333333333333</c:v>
+                  <c:v>14.5333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.9666666666666</c:v>
+                  <c:v>19.95</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.8833333333333</c:v>
+                  <c:v>27.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.6833333333333</c:v>
+                  <c:v>33.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44.9333333333333</c:v>
+                  <c:v>41.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51.9333333333333</c:v>
+                  <c:v>47.95</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60.6833333333333</c:v>
+                  <c:v>56.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>67.18333333333329</c:v>
+                  <c:v>64.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>74.18333333333329</c:v>
+                  <c:v>70.95</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>80.68333333333329</c:v>
+                  <c:v>78.7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>88.68333333333329</c:v>
+                  <c:v>85.7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>95.2833333333333</c:v>
+                  <c:v>92.95</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>102.616666666666</c:v>
+                  <c:v>99.3833333333333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>109.583333333333</c:v>
+                  <c:v>105.383333333333</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>115.583333333333</c:v>
+                  <c:v>112.55</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>122.966666666666</c:v>
+                  <c:v>118.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>130.616666666666</c:v>
+                  <c:v>126.466666666666</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>137.65</c:v>
+                  <c:v>132.433333333333</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>143.7</c:v>
+                  <c:v>138.516666666666</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>150.566666666666</c:v>
+                  <c:v>144.25</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>156.333333333333</c:v>
+                  <c:v>150.8</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>161.8</c:v>
+                  <c:v>157.95</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>167.266666666666</c:v>
+                  <c:v>164.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>173.083333333333</c:v>
+                  <c:v>171.3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>181.2</c:v>
+                  <c:v>178.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>186.5</c:v>
+                  <c:v>185.683333333333</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>195.083333333333</c:v>
+                  <c:v>193.683333333333</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>200.266666666666</c:v>
+                  <c:v>199.766666666666</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>207.233333333333</c:v>
+                  <c:v>206.133333333333</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>212.433333333333</c:v>
+                  <c:v>212.7</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>218.816666666666</c:v>
+                  <c:v>218.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>225.2</c:v>
+                  <c:v>224.283333333333</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>231.866666666666</c:v>
+                  <c:v>228.3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>235.8</c:v>
+                  <c:v>234.65</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>240.516666666666</c:v>
+                  <c:v>241.433333333333</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>245.9</c:v>
+                  <c:v>247.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>251.55</c:v>
+                  <c:v>253.466666666666</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>257.683333333333</c:v>
+                  <c:v>257.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>262.466666666666</c:v>
+                  <c:v>261.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>266.8</c:v>
+                  <c:v>265.466666666666</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>270.933333333333</c:v>
+                  <c:v>268.3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>271.55</c:v>
+                  <c:v>271.45</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>273.15</c:v>
+                  <c:v>274.183333333333</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>275.65</c:v>
+                  <c:v>274.483333333333</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>276.733333333333</c:v>
+                  <c:v>273.883333333333</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>275.5</c:v>
+                  <c:v>273.233333333333</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>275.15</c:v>
+                  <c:v>273.2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>273.65</c:v>
+                  <c:v>273.516666666666</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>271.3</c:v>
+                  <c:v>272.866666666666</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>269.55</c:v>
+                  <c:v>270.716666666666</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>267.466666666666</c:v>
+                  <c:v>268.516666666666</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>265.55</c:v>
+                  <c:v>265.933333333333</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>262.966666666666</c:v>
+                  <c:v>263.266666666666</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>260.633333333333</c:v>
+                  <c:v>260.5</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>258.333333333333</c:v>
+                  <c:v>258.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>256.333333333333</c:v>
+                  <c:v>255.75</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>253.75</c:v>
+                  <c:v>253.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>251.5</c:v>
+                  <c:v>250.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>249.166666666666</c:v>
+                  <c:v>247.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>246.75</c:v>
+                  <c:v>245.5</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>244.416666666666</c:v>
+                  <c:v>242.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>242.25</c:v>
+                  <c:v>240.5</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>240.0</c:v>
+                  <c:v>238.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>237.25</c:v>
+                  <c:v>235.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>234.75</c:v>
+                  <c:v>232.5</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>232.333333333333</c:v>
+                  <c:v>230.25</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>230.25</c:v>
+                  <c:v>227.75</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>227.833333333333</c:v>
+                  <c:v>225.5</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>225.083333333333</c:v>
+                  <c:v>222.75</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>222.416666666666</c:v>
+                  <c:v>220.25</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>219.833333333333</c:v>
+                  <c:v>217.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>217.0</c:v>
+                  <c:v>215.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>213.916666666666</c:v>
+                  <c:v>212.75</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>210.75</c:v>
+                  <c:v>210.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>207.75</c:v>
+                  <c:v>207.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>205.083333333333</c:v>
+                  <c:v>205.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>201.666666666666</c:v>
+                  <c:v>202.25</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -1855,11 +1395,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$1</c:f>
+              <c:f>Sheet1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Taste 1 </c:v>
+                  <c:v> Taste 0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1867,12 +1407,12 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$81</c:f>
+              <c:f>Sheet1!$H$2:$H$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>2.56666666666666</c:v>
                 </c:pt>
@@ -1883,481 +1423,232 @@
                   <c:v>14.0333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.9</c:v>
+                  <c:v>21.8333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.9333333333333</c:v>
+                  <c:v>27.5833333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.9166666666666</c:v>
+                  <c:v>34.5833333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41.4166666666666</c:v>
+                  <c:v>41.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49.4166666666666</c:v>
+                  <c:v>49.2666666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56.9166666666666</c:v>
+                  <c:v>55.5166666666666</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>65.6666666666666</c:v>
+                  <c:v>64.0166666666666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>72.6666666666666</c:v>
+                  <c:v>72.0166666666666</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>79.4166666666666</c:v>
+                  <c:v>80.3833333333333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>86.6666666666666</c:v>
+                  <c:v>87.3833333333333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>93.4</c:v>
+                  <c:v>95.05</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>100.65</c:v>
+                  <c:v>102.05</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>106.95</c:v>
+                  <c:v>109.016666666666</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>113.45</c:v>
+                  <c:v>117.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>120.433333333333</c:v>
+                  <c:v>123.566666666666</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>127.683333333333</c:v>
+                  <c:v>129.983333333333</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>134.183333333333</c:v>
+                  <c:v>136.216666666666</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>141.166666666666</c:v>
+                  <c:v>144.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>149.416666666666</c:v>
+                  <c:v>151.233333333333</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>157.75</c:v>
+                  <c:v>159.066666666666</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>165.783333333333</c:v>
+                  <c:v>166.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>174.05</c:v>
+                  <c:v>174.466666666666</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>179.933333333333</c:v>
+                  <c:v>181.783333333333</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>185.533333333333</c:v>
+                  <c:v>186.866666666666</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>192.716666666666</c:v>
+                  <c:v>194.233333333333</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>199.966666666666</c:v>
+                  <c:v>199.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>205.9</c:v>
+                  <c:v>206.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>212.0</c:v>
+                  <c:v>212.1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>218.55</c:v>
+                  <c:v>218.966666666666</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>225.233333333333</c:v>
+                  <c:v>224.716666666666</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>229.15</c:v>
+                  <c:v>230.2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>234.85</c:v>
+                  <c:v>235.933333333333</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>239.666666666666</c:v>
+                  <c:v>242.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>243.6</c:v>
+                  <c:v>248.75</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>248.433333333333</c:v>
+                  <c:v>253.633333333333</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>253.366666666666</c:v>
+                  <c:v>257.25</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>258.833333333333</c:v>
+                  <c:v>260.316666666666</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>263.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>267.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>269.466666666666</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>270.05</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>270.916666666666</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>273.15</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>273.466666666666</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>273.233333333333</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>272.716666666666</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>271.416666666666</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>270.033333333333</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>267.85</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>266.133333333333</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>263.716666666666</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>267.4</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>270.416666666666</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>271.25</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>272.8</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>274.033333333333</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>272.566666666666</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>272.55</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>271.266666666666</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>269.416666666666</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>267.083333333333</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>265.583333333333</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>263.5</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>260.75</c:v>
-                </c:pt>
                 <c:pt idx="54">
-                  <c:v>257.666666666666</c:v>
+                  <c:v>261.633333333333</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>255.75</c:v>
+                  <c:v>259.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>253.583333333333</c:v>
+                  <c:v>256.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>251.916666666666</c:v>
+                  <c:v>253.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>250.5</c:v>
+                  <c:v>251.25</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>248.0</c:v>
+                  <c:v>248.5</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>245.333333333333</c:v>
+                  <c:v>245.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>243.166666666666</c:v>
+                  <c:v>243.25</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>240.75</c:v>
+                  <c:v>240.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>238.25</c:v>
+                  <c:v>237.75</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>236.0</c:v>
+                  <c:v>235.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>234.0</c:v>
+                  <c:v>232.75</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>231.333333333333</c:v>
+                  <c:v>230.25</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>228.833333333333</c:v>
+                  <c:v>227.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>226.416666666666</c:v>
+                  <c:v>224.75</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>223.666666666666</c:v>
+                  <c:v>222.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>220.916666666666</c:v>
+                  <c:v>219.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>218.166666666666</c:v>
+                  <c:v>217.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>215.833333333333</c:v>
+                  <c:v>215.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>213.666666666666</c:v>
+                  <c:v>213.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>211.416666666666</c:v>
+                  <c:v>211.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>209.0</c:v>
+                  <c:v>209.25</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>207.0</c:v>
+                  <c:v>207.25</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>204.666666666666</c:v>
+                  <c:v>204.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>203.083333333333</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>200.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$J$2:$J$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
-                <c:pt idx="0">
-                  <c:v>2.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.43333333333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.0666666666666</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17.3666666666666</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24.2166666666666</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>31.7166666666666</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>39.7166666666666</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>47.4666666666666</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>54.2166666666666</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>60.9666666666666</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>69.2166666666666</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>77.2166666666666</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>84.9666666666666</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>91.4666666666666</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>98.0833333333333</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>105.683333333333</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>113.666666666666</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>120.6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>127.45</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>135.533333333333</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>141.683333333333</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>148.533333333333</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>156.95</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>162.8</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>170.133333333333</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>178.316666666666</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>183.65</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>190.6</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>197.383333333333</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>205.2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>210.083333333333</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>216.516666666666</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>224.183333333333</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>231.133333333333</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>237.366666666666</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>240.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>246.35</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>253.416666666666</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>257.516666666666</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>261.583333333333</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>264.333333333333</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>267.15</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>270.95</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>274.266666666666</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>276.8</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>277.866666666666</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>277.433333333333</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>275.7</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>275.033333333333</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>274.016666666666</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>271.883333333333</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>269.883333333333</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>267.966666666666</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>265.416666666666</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>263.083333333333</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>260.5</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>258.166666666666</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>255.666666666666</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>252.833333333333</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>250.75</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>247.916666666666</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>245.416666666666</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>242.666666666666</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>240.333333333333</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>237.75</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>234.916666666666</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>232.083333333333</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>229.75</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>227.25</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>225.416666666666</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>222.75</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>219.833333333333</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>217.416666666666</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>214.916666666666</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>211.75</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>209.833333333333</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>208.166666666666</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>205.833333333333</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>203.5</c:v>
+                  <c:v>203.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -2372,11 +1663,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$1</c:f>
+              <c:f>Sheet1!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Taste 1 </c:v>
+                  <c:v> Taste 0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2384,497 +1675,248 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$81</c:f>
+              <c:f>Sheet1!$K$2:$K$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>2.56666666666666</c:v>
+                  <c:v>2.76666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.71666666666666</c:v>
+                  <c:v>6.96666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.0333333333333</c:v>
+                  <c:v>14.9333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.9</c:v>
+                  <c:v>23.4333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.9333333333333</c:v>
+                  <c:v>30.7833333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.9166666666666</c:v>
+                  <c:v>38.2833333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41.4166666666666</c:v>
+                  <c:v>45.2833333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49.4166666666666</c:v>
+                  <c:v>52.5333333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56.9166666666666</c:v>
+                  <c:v>60.7833333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>65.6666666666666</c:v>
+                  <c:v>69.0333333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>72.6666666666666</c:v>
+                  <c:v>75.7833333333333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>79.4166666666666</c:v>
+                  <c:v>82.7833333333333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>86.6666666666666</c:v>
+                  <c:v>90.0333333333333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>93.4</c:v>
+                  <c:v>98.5333333333333</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>100.65</c:v>
+                  <c:v>106.783333333333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>106.95</c:v>
+                  <c:v>113.716666666666</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>113.45</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>120.433333333333</c:v>
+                  <c:v>127.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>127.683333333333</c:v>
+                  <c:v>134.216666666666</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>134.183333333333</c:v>
+                  <c:v>139.933333333333</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>141.166666666666</c:v>
+                  <c:v>147.25</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>149.416666666666</c:v>
+                  <c:v>153.133333333333</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>157.75</c:v>
+                  <c:v>158.516666666666</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>165.783333333333</c:v>
+                  <c:v>165.6</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>174.05</c:v>
+                  <c:v>172.066666666666</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>179.933333333333</c:v>
+                  <c:v>177.55</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>185.533333333333</c:v>
+                  <c:v>185.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>192.716666666666</c:v>
+                  <c:v>192.2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>199.966666666666</c:v>
+                  <c:v>198.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>205.9</c:v>
+                  <c:v>203.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>212.0</c:v>
+                  <c:v>210.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>218.55</c:v>
+                  <c:v>216.283333333333</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>225.233333333333</c:v>
+                  <c:v>220.55</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>229.15</c:v>
+                  <c:v>227.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>234.85</c:v>
+                  <c:v>232.566666666666</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>241.016666666666</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>246.716666666666</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>252.383333333333</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>257.283333333333</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>262.95</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>269.066666666666</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>271.583333333333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>274.783333333333</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>276.933333333333</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>278.266666666666</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>279.6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>279.7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>278.433333333333</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>275.766666666666</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>273.85</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>272.383333333333</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>269.716666666666</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>266.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>264.583333333333</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>261.916666666666</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>259.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>256.833333333333</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>254.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>252.166666666666</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>249.25</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>247.083333333333</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>244.583333333333</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>242.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>239.666666666666</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>243.6</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>248.433333333333</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>253.366666666666</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>258.833333333333</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>263.716666666666</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>267.4</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>270.416666666666</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>271.25</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>272.8</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>274.033333333333</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>272.566666666666</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>272.55</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>271.266666666666</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>269.416666666666</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>267.083333333333</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>265.583333333333</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>263.5</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>260.75</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>257.666666666666</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>255.75</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>253.583333333333</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>251.916666666666</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>250.5</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>248.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>245.333333333333</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>243.166666666666</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>240.75</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>238.25</c:v>
-                </c:pt>
                 <c:pt idx="64">
-                  <c:v>236.0</c:v>
+                  <c:v>237.25</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>234.0</c:v>
+                  <c:v>235.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>231.333333333333</c:v>
+                  <c:v>232.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>228.833333333333</c:v>
+                  <c:v>230.25</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>226.416666666666</c:v>
+                  <c:v>227.75</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>223.666666666666</c:v>
+                  <c:v>224.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>220.916666666666</c:v>
+                  <c:v>222.25</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>218.166666666666</c:v>
+                  <c:v>220.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>215.833333333333</c:v>
+                  <c:v>217.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>213.666666666666</c:v>
+                  <c:v>215.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>211.416666666666</c:v>
+                  <c:v>213.25</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>209.0</c:v>
+                  <c:v>210.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>207.0</c:v>
+                  <c:v>206.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>204.666666666666</c:v>
+                  <c:v>204.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>203.083333333333</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>200.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$M$2:$M$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
-                <c:pt idx="0">
-                  <c:v>2.96666666666666</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.66666666666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22.7166666666666</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30.85</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>39.35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>48.35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>57.2833333333333</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>65.7833333333333</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>72.7833333333333</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>81.0333333333333</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>88.7833333333333</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>97.0333333333333</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>105.283333333333</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>112.083333333333</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>119.066666666666</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>126.75</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>133.85</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>141.35</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>147.683333333333</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>155.283333333333</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>161.833333333333</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>168.75</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>176.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>183.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>189.833333333333</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>195.033333333333</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>199.083333333333</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>205.616666666666</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>212.333333333333</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>218.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>223.683333333333</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>228.933333333333</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>233.45</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>238.716666666666</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>245.2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>249.416666666666</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>253.033333333333</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>255.433333333333</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>260.766666666666</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>264.3</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>266.75</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>268.35</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>268.583333333333</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>268.366666666666</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>267.983333333333</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>267.55</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>265.633333333333</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>264.45</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>262.85</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>261.35</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>260.266666666666</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>258.433333333333</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>257.433333333333</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>255.766666666666</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>253.933333333333</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>253.433333333333</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>252.483333333333</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>249.4</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>247.116666666666</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>244.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>243.45</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>241.283333333333</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>239.616666666666</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>236.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>233.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>231.416666666666</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>229.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>226.333333333333</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>224.083333333333</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>222.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>219.166666666666</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>216.666666666666</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>214.25</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>212.25</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>210.916666666666</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>208.916666666666</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>206.25</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>204.0</c:v>
+                  <c:v>201.5</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -2889,11 +1931,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$1</c:f>
+              <c:f>Sheet1!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Taste 1 </c:v>
+                  <c:v> Taste 0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2901,497 +1943,248 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$81</c:f>
+              <c:f>Sheet1!$N$2:$N$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>2.56666666666666</c:v>
+                  <c:v>2.43333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.71666666666666</c:v>
+                  <c:v>5.53333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.0333333333333</c:v>
+                  <c:v>9.93333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.9</c:v>
+                  <c:v>16.8166666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.9333333333333</c:v>
+                  <c:v>22.2833333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.9166666666666</c:v>
+                  <c:v>28.5833333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41.4166666666666</c:v>
+                  <c:v>34.3166666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49.4166666666666</c:v>
+                  <c:v>40.05</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56.9166666666666</c:v>
+                  <c:v>46.55</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>65.6666666666666</c:v>
+                  <c:v>54.4166666666666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>72.6666666666666</c:v>
+                  <c:v>61.1666666666666</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>79.4166666666666</c:v>
+                  <c:v>68.4166666666666</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>86.6666666666666</c:v>
+                  <c:v>75.1666666666666</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>93.4</c:v>
+                  <c:v>81.9166666666666</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>100.65</c:v>
+                  <c:v>89.9166666666666</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>106.95</c:v>
+                  <c:v>97.6666666666666</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>113.45</c:v>
+                  <c:v>103.783333333333</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>120.433333333333</c:v>
+                  <c:v>110.616666666666</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>127.683333333333</c:v>
+                  <c:v>116.783333333333</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>134.183333333333</c:v>
+                  <c:v>123.716666666666</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>141.166666666666</c:v>
+                  <c:v>129.783333333333</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>149.416666666666</c:v>
+                  <c:v>136.766666666666</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>157.75</c:v>
+                  <c:v>143.05</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>165.783333333333</c:v>
+                  <c:v>148.966666666666</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>174.05</c:v>
+                  <c:v>155.933333333333</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>179.933333333333</c:v>
+                  <c:v>163.233333333333</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>185.533333333333</c:v>
+                  <c:v>170.1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>192.716666666666</c:v>
+                  <c:v>177.716666666666</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>199.966666666666</c:v>
+                  <c:v>184.65</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>205.9</c:v>
+                  <c:v>191.4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>212.0</c:v>
+                  <c:v>198.216666666666</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>218.55</c:v>
+                  <c:v>206.25</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>225.233333333333</c:v>
+                  <c:v>214.2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>229.15</c:v>
+                  <c:v>221.616666666666</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>234.85</c:v>
+                  <c:v>228.55</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>239.666666666666</c:v>
+                  <c:v>233.533333333333</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>243.6</c:v>
+                  <c:v>237.383333333333</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>248.433333333333</c:v>
+                  <c:v>242.9</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>253.366666666666</c:v>
+                  <c:v>250.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>258.833333333333</c:v>
+                  <c:v>254.5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>263.716666666666</c:v>
+                  <c:v>257.566666666666</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>267.4</c:v>
+                  <c:v>260.116666666666</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>264.516666666666</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>267.55</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>268.9</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>270.416666666666</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>271.25</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>272.8</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>274.033333333333</c:v>
-                </c:pt>
                 <c:pt idx="46">
-                  <c:v>272.566666666666</c:v>
+                  <c:v>271.45</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>272.55</c:v>
+                  <c:v>273.033333333333</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>271.266666666666</c:v>
+                  <c:v>272.816666666666</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>269.416666666666</c:v>
+                  <c:v>273.016666666666</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>267.083333333333</c:v>
+                  <c:v>271.783333333333</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>265.583333333333</c:v>
+                  <c:v>269.866666666666</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>263.5</c:v>
+                  <c:v>268.966666666666</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>260.75</c:v>
+                  <c:v>266.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>257.666666666666</c:v>
+                  <c:v>264.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>255.75</c:v>
+                  <c:v>262.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>253.583333333333</c:v>
+                  <c:v>259.5</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>251.916666666666</c:v>
+                  <c:v>256.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>250.5</c:v>
+                  <c:v>254.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>248.0</c:v>
+                  <c:v>252.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>245.333333333333</c:v>
+                  <c:v>249.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>243.166666666666</c:v>
+                  <c:v>246.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>240.75</c:v>
+                  <c:v>243.25</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>238.25</c:v>
+                  <c:v>240.25</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>236.0</c:v>
+                  <c:v>238.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>234.0</c:v>
+                  <c:v>236.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>231.333333333333</c:v>
+                  <c:v>233.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>228.833333333333</c:v>
+                  <c:v>231.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>226.416666666666</c:v>
+                  <c:v>228.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>223.666666666666</c:v>
+                  <c:v>225.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>220.916666666666</c:v>
+                  <c:v>223.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>218.166666666666</c:v>
+                  <c:v>220.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>215.833333333333</c:v>
+                  <c:v>218.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>213.666666666666</c:v>
+                  <c:v>215.75</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>211.416666666666</c:v>
+                  <c:v>212.75</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>209.0</c:v>
+                  <c:v>209.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>207.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>204.666666666666</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>203.083333333333</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>200.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$P$2:$P$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
-                <c:pt idx="0">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.71666666666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.3333333333333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22.1166666666666</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30.7333333333333</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>37.9833333333333</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>46.9833333333333</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>56.4833333333333</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>63.7333333333333</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70.48333333333331</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>77.48333333333331</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>85.73333333333331</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>94.23333333333331</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>102.233333333333</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>109.733333333333</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>118.483333333333</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>126.6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>134.216666666666</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>140.95</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>147.683333333333</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>154.383333333333</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>160.266666666666</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>166.033333333333</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>171.616666666666</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>177.766666666666</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>186.15</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>193.8</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>200.583333333333</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>206.983333333333</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>213.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>219.866666666666</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>227.3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>233.65</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>239.183333333333</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>245.9</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>252.383333333333</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>258.083333333333</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>262.116666666666</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>265.45</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>267.25</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>270.35</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>273.966666666666</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>275.033333333333</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>275.983333333333</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>276.466666666666</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>276.05</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>273.666666666666</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>271.566666666666</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>269.533333333333</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>267.75</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>265.166666666666</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>262.75</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>261.5</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>259.333333333333</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>256.916666666666</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>255.166666666666</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>252.916666666666</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>250.166666666666</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>247.083333333333</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>244.833333333333</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>242.333333333333</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>240.083333333333</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>237.25</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>234.583333333333</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>232.083333333333</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>229.083333333333</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>226.083333333333</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>224.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>222.083333333333</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>219.916666666666</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>217.333333333333</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>215.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>213.166666666666</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>211.166666666666</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>208.916666666666</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>206.0</c:v>
+                  <c:v>206.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>203.75</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>201.583333333333</c:v>
+                  <c:v>201.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -3406,11 +2199,11 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$S$1</c:f>
+              <c:f>Sheet1!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Taste 1 </c:v>
+                  <c:v> Taste 0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3418,497 +2211,248 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$81</c:f>
+              <c:f>Sheet1!$Q$2:$Q$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>2.56666666666666</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.71666666666666</c:v>
+                  <c:v>8.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.0333333333333</c:v>
+                  <c:v>16.2166666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.9</c:v>
+                  <c:v>23.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.9333333333333</c:v>
+                  <c:v>31.6833333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.9166666666666</c:v>
+                  <c:v>37.9333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41.4166666666666</c:v>
+                  <c:v>45.6833333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49.4166666666666</c:v>
+                  <c:v>51.6833333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56.9166666666666</c:v>
+                  <c:v>57.1833333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>65.6666666666666</c:v>
+                  <c:v>64.93333333333329</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>72.6666666666666</c:v>
+                  <c:v>73.18333333333329</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>79.4166666666666</c:v>
+                  <c:v>81.18333333333329</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>86.6666666666666</c:v>
+                  <c:v>87.93333333333329</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>93.4</c:v>
+                  <c:v>94.43333333333329</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>100.65</c:v>
+                  <c:v>101.233333333333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>106.95</c:v>
+                  <c:v>108.6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>113.45</c:v>
+                  <c:v>114.383333333333</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>120.433333333333</c:v>
+                  <c:v>121.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>127.683333333333</c:v>
+                  <c:v>127.516666666666</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>134.183333333333</c:v>
+                  <c:v>134.116666666666</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>141.166666666666</c:v>
+                  <c:v>140.516666666666</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>149.416666666666</c:v>
+                  <c:v>148.016666666666</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>157.75</c:v>
+                  <c:v>155.066666666666</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>165.783333333333</c:v>
+                  <c:v>163.033333333333</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>174.05</c:v>
+                  <c:v>170.65</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>179.933333333333</c:v>
+                  <c:v>178.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>185.533333333333</c:v>
+                  <c:v>183.05</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>192.716666666666</c:v>
+                  <c:v>188.533333333333</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>199.966666666666</c:v>
+                  <c:v>195.216666666666</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>205.9</c:v>
+                  <c:v>201.35</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>212.0</c:v>
+                  <c:v>207.283333333333</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>218.55</c:v>
+                  <c:v>213.466666666666</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>225.233333333333</c:v>
+                  <c:v>219.033333333333</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>229.15</c:v>
+                  <c:v>225.15</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>234.85</c:v>
+                  <c:v>231.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>239.666666666666</c:v>
+                  <c:v>236.633333333333</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>243.6</c:v>
+                  <c:v>240.883333333333</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>248.433333333333</c:v>
+                  <c:v>246.316666666666</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>253.366666666666</c:v>
+                  <c:v>251.683333333333</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>258.833333333333</c:v>
+                  <c:v>256.683333333333</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>263.716666666666</c:v>
+                  <c:v>262.216666666666</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>267.4</c:v>
+                  <c:v>266.183333333333</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>270.416666666666</c:v>
+                  <c:v>269.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>271.25</c:v>
+                  <c:v>270.966666666666</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>272.8</c:v>
+                  <c:v>272.816666666666</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>274.033333333333</c:v>
+                  <c:v>273.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>272.566666666666</c:v>
+                  <c:v>276.616666666666</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>272.55</c:v>
+                  <c:v>276.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>271.266666666666</c:v>
+                  <c:v>277.3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>269.416666666666</c:v>
+                  <c:v>276.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>267.083333333333</c:v>
+                  <c:v>274.85</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>265.583333333333</c:v>
+                  <c:v>272.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>263.5</c:v>
+                  <c:v>270.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>260.75</c:v>
+                  <c:v>267.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>257.666666666666</c:v>
+                  <c:v>265.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>255.75</c:v>
+                  <c:v>262.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>253.583333333333</c:v>
+                  <c:v>259.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>251.916666666666</c:v>
+                  <c:v>257.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>250.5</c:v>
+                  <c:v>254.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>248.0</c:v>
+                  <c:v>252.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>245.333333333333</c:v>
+                  <c:v>250.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>243.166666666666</c:v>
+                  <c:v>247.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>240.75</c:v>
+                  <c:v>244.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>238.25</c:v>
+                  <c:v>242.75</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>236.0</c:v>
+                  <c:v>240.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>234.0</c:v>
+                  <c:v>237.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>231.333333333333</c:v>
+                  <c:v>235.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>228.833333333333</c:v>
+                  <c:v>233.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>226.416666666666</c:v>
+                  <c:v>231.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>223.666666666666</c:v>
+                  <c:v>227.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>220.916666666666</c:v>
+                  <c:v>225.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>218.166666666666</c:v>
+                  <c:v>222.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>215.833333333333</c:v>
+                  <c:v>220.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>213.666666666666</c:v>
+                  <c:v>216.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>211.416666666666</c:v>
+                  <c:v>213.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>211.083333333333</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>209.0</c:v>
                 </c:pt>
-                <c:pt idx="76">
-                  <c:v>207.0</c:v>
-                </c:pt>
                 <c:pt idx="77">
-                  <c:v>204.666666666666</c:v>
+                  <c:v>206.25</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>203.083333333333</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>200.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$S$2:$S$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
-                <c:pt idx="0">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.0333333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.7166666666666</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27.45</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>51.95</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>69.45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>76.45</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>83.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>90.7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>100.45</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>107.866666666666</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>114.866666666666</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>121.833333333333</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>128.616666666666</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>135.366666666666</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>143.2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>150.466666666666</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>156.95</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>163.15</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>169.333333333333</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>175.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>182.65</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>190.25</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>196.283333333333</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>201.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>208.633333333333</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>214.8</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>219.933333333333</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>226.166666666666</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>232.533333333333</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>239.5</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>244.016666666666</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>250.366666666666</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>254.983333333333</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>259.316666666666</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>262.983333333333</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>266.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>271.05</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>273.45</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>275.016666666666</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>277.916666666666</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>279.2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>278.366666666666</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>277.2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>274.866666666666</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>272.333333333333</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>269.666666666666</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>266.25</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>263.666666666666</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>261.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>258.416666666666</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>255.5</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>253.083333333333</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>250.333333333333</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>247.916666666666</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>245.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>242.5</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>240.25</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>237.583333333333</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>234.75</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>232.75</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>230.166666666666</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>227.75</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>224.916666666666</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>222.5</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>220.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>216.833333333333</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>214.666666666666</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>211.833333333333</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>209.75</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>207.75</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>206.166666666666</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>204.333333333333</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>202.916666666666</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>201.5</c:v>
+                  <c:v>203.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -3923,11 +2467,11 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$V$1</c:f>
+              <c:f>Sheet1!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Taste 1 </c:v>
+                  <c:v> Taste 0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3935,497 +2479,248 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$81</c:f>
+              <c:f>Sheet1!$T$2:$T$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>2.56666666666666</c:v>
+                  <c:v>2.63333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.71666666666666</c:v>
+                  <c:v>7.03333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.0333333333333</c:v>
+                  <c:v>13.7666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.9</c:v>
+                  <c:v>21.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.9333333333333</c:v>
+                  <c:v>29.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.9166666666666</c:v>
+                  <c:v>36.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41.4166666666666</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49.4166666666666</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>56.9166666666666</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>65.6666666666666</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>72.6666666666666</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>79.4166666666666</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>86.6666666666666</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>93.4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>100.65</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>106.95</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>113.45</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>120.433333333333</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>127.683333333333</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>134.183333333333</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>141.166666666666</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>149.416666666666</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>157.75</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>165.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>174.05</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>179.933333333333</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>185.533333333333</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>192.716666666666</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>199.966666666666</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>205.9</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>212.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>218.55</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>225.233333333333</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>229.15</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>234.85</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>239.666666666666</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>243.6</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>248.433333333333</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>253.366666666666</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>258.833333333333</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>263.716666666666</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>267.4</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>270.416666666666</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>271.25</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>272.8</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>274.033333333333</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>272.566666666666</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>272.55</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>271.266666666666</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>269.416666666666</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>267.083333333333</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>265.583333333333</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>263.5</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>260.75</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>257.666666666666</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>255.75</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>253.583333333333</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>251.916666666666</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>250.5</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>248.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>245.333333333333</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>243.166666666666</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>240.75</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>238.25</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>236.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>234.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>231.333333333333</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>228.833333333333</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>226.416666666666</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>223.666666666666</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>220.916666666666</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>218.166666666666</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>215.833333333333</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>213.666666666666</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>211.416666666666</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>209.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>207.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>204.666666666666</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>203.083333333333</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>200.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$V$2:$V$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
-                <c:pt idx="0">
-                  <c:v>2.16666666666666</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.88333333333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.85</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.1333333333333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24.75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>33.25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>47.5</c:v>
+                  <c:v>50.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>65.5</c:v>
+                  <c:v>62.6166666666666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>71.25</c:v>
+                  <c:v>70.6166666666666</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>78.0</c:v>
+                  <c:v>78.8666666666666</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>86.75</c:v>
+                  <c:v>86.3666666666666</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>93.75</c:v>
+                  <c:v>91.6166666666666</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>103.5</c:v>
+                  <c:v>98.8666666666666</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>110.333333333333</c:v>
+                  <c:v>106.866666666666</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>117.816666666666</c:v>
+                  <c:v>113.766666666666</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>123.3</c:v>
+                  <c:v>120.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>129.1</c:v>
+                  <c:v>127.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>135.75</c:v>
+                  <c:v>133.866666666666</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>143.15</c:v>
+                  <c:v>140.4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>148.7</c:v>
+                  <c:v>148.05</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>155.733333333333</c:v>
+                  <c:v>155.65</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>162.6</c:v>
+                  <c:v>163.133333333333</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>167.416666666666</c:v>
+                  <c:v>170.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>173.75</c:v>
+                  <c:v>176.75</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>182.066666666666</c:v>
+                  <c:v>182.55</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>186.95</c:v>
+                  <c:v>189.65</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>192.6</c:v>
+                  <c:v>196.483333333333</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>200.233333333333</c:v>
+                  <c:v>201.433333333333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>205.966666666666</c:v>
+                  <c:v>207.133333333333</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>212.283333333333</c:v>
+                  <c:v>214.866666666666</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>217.616666666666</c:v>
+                  <c:v>220.033333333333</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>223.55</c:v>
+                  <c:v>226.8</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>230.666666666666</c:v>
+                  <c:v>232.233333333333</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>235.933333333333</c:v>
+                  <c:v>237.983333333333</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>243.15</c:v>
+                  <c:v>243.7</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>248.033333333333</c:v>
+                  <c:v>251.483333333333</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>254.016666666666</c:v>
+                  <c:v>257.95</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>259.9</c:v>
+                  <c:v>262.483333333333</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>262.883333333333</c:v>
+                  <c:v>267.55</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>266.233333333333</c:v>
+                  <c:v>271.283333333333</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>269.883333333333</c:v>
+                  <c:v>275.216666666666</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>271.2</c:v>
+                  <c:v>277.65</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>271.916666666666</c:v>
+                  <c:v>279.95</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>272.233333333333</c:v>
+                  <c:v>281.066666666666</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>271.916666666666</c:v>
+                  <c:v>282.233333333333</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>272.083333333333</c:v>
+                  <c:v>281.533333333333</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>270.916666666666</c:v>
+                  <c:v>279.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>270.466666666666</c:v>
+                  <c:v>277.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>269.366666666666</c:v>
+                  <c:v>275.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>266.683333333333</c:v>
+                  <c:v>273.75</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>265.433333333333</c:v>
+                  <c:v>271.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>263.433333333333</c:v>
+                  <c:v>269.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>261.95</c:v>
+                  <c:v>266.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>259.366666666666</c:v>
+                  <c:v>264.5</c:v>
                 </c:pt>
                 <c:pt idx="56">
+                  <c:v>261.916666666666</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>259.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>257.083333333333</c:v>
                 </c:pt>
-                <c:pt idx="57">
-                  <c:v>255.166666666666</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>253.0</c:v>
-                </c:pt>
                 <c:pt idx="59">
-                  <c:v>250.666666666666</c:v>
+                  <c:v>255.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>248.25</c:v>
+                  <c:v>252.5</c:v>
                 </c:pt>
                 <c:pt idx="61">
+                  <c:v>249.75</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>247.416666666666</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>245.25</c:v>
                 </c:pt>
-                <c:pt idx="62">
-                  <c:v>243.166666666666</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>240.416666666666</c:v>
-                </c:pt>
                 <c:pt idx="64">
-                  <c:v>238.0</c:v>
+                  <c:v>242.25</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>235.5</c:v>
+                  <c:v>239.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>232.916666666666</c:v>
+                  <c:v>237.25</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>229.916666666666</c:v>
+                  <c:v>235.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>227.416666666666</c:v>
+                  <c:v>232.5</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>224.916666666666</c:v>
+                  <c:v>230.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>222.916666666666</c:v>
+                  <c:v>228.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="71">
+                  <c:v>225.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>223.166666666666</c:v>
+                </c:pt>
+                <c:pt idx="73">
                   <c:v>220.25</c:v>
                 </c:pt>
-                <c:pt idx="72">
-                  <c:v>217.5</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>214.416666666666</c:v>
-                </c:pt>
                 <c:pt idx="74">
-                  <c:v>212.25</c:v>
+                  <c:v>217.25</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>210.5</c:v>
+                  <c:v>213.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>207.916666666666</c:v>
+                  <c:v>210.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>205.583333333333</c:v>
+                  <c:v>207.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>203.166666666666</c:v>
+                  <c:v>203.5</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -4440,11 +2735,11 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Y$1</c:f>
+              <c:f>Sheet1!$W$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Taste 1 </c:v>
+                  <c:v> Taste 0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4452,497 +2747,248 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$81</c:f>
+              <c:f>Sheet1!$W$2:$W$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>2.56666666666666</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.71666666666666</c:v>
+                  <c:v>8.38333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.0333333333333</c:v>
+                  <c:v>14.4166666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.9</c:v>
+                  <c:v>19.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.9333333333333</c:v>
+                  <c:v>27.1166666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.9166666666666</c:v>
+                  <c:v>33.4833333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41.4166666666666</c:v>
+                  <c:v>40.7333333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49.4166666666666</c:v>
+                  <c:v>49.0333333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56.9166666666666</c:v>
+                  <c:v>54.5333333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>65.6666666666666</c:v>
+                  <c:v>61.0333333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>72.6666666666666</c:v>
+                  <c:v>70.2833333333333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>79.4166666666666</c:v>
+                  <c:v>78.5333333333333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>86.6666666666666</c:v>
+                  <c:v>84.7833333333333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>93.4</c:v>
+                  <c:v>92.7833333333333</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>100.65</c:v>
+                  <c:v>97.9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>106.95</c:v>
+                  <c:v>105.4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>113.45</c:v>
+                  <c:v>112.383333333333</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>120.433333333333</c:v>
+                  <c:v>121.633333333333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>127.683333333333</c:v>
+                  <c:v>129.233333333333</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>134.183333333333</c:v>
+                  <c:v>136.383333333333</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>141.166666666666</c:v>
+                  <c:v>142.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>149.416666666666</c:v>
+                  <c:v>150.766666666666</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>157.75</c:v>
+                  <c:v>156.2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>165.783333333333</c:v>
+                  <c:v>162.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>174.05</c:v>
+                  <c:v>171.783333333333</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>179.933333333333</c:v>
+                  <c:v>178.983333333333</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>185.533333333333</c:v>
+                  <c:v>183.2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>192.716666666666</c:v>
+                  <c:v>190.45</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>199.966666666666</c:v>
+                  <c:v>197.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>205.9</c:v>
+                  <c:v>203.433333333333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>212.0</c:v>
+                  <c:v>210.566666666666</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>218.55</c:v>
+                  <c:v>216.516666666666</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>225.233333333333</c:v>
+                  <c:v>223.983333333333</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>229.15</c:v>
+                  <c:v>227.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>234.85</c:v>
+                  <c:v>233.466666666666</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>239.666666666666</c:v>
+                  <c:v>239.2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>243.6</c:v>
+                  <c:v>244.116666666666</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>248.433333333333</c:v>
+                  <c:v>250.433333333333</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>253.366666666666</c:v>
+                  <c:v>255.85</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>258.833333333333</c:v>
+                  <c:v>259.7</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>263.716666666666</c:v>
+                  <c:v>263.783333333333</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>267.4</c:v>
+                  <c:v>267.9</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>270.416666666666</c:v>
+                  <c:v>272.116666666666</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>271.25</c:v>
+                  <c:v>275.266666666666</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>276.883333333333</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>277.1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>276.95</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>276.516666666666</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>274.883333333333</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>272.8</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>274.033333333333</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>272.566666666666</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>272.55</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>271.266666666666</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>269.416666666666</c:v>
-                </c:pt>
                 <c:pt idx="50">
-                  <c:v>267.083333333333</c:v>
+                  <c:v>270.366666666666</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>265.583333333333</c:v>
+                  <c:v>268.783333333333</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>263.5</c:v>
+                  <c:v>266.033333333333</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>260.75</c:v>
+                  <c:v>263.366666666666</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>257.666666666666</c:v>
+                  <c:v>261.116666666666</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>255.75</c:v>
+                  <c:v>259.366666666666</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>253.583333333333</c:v>
+                  <c:v>257.45</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>251.916666666666</c:v>
+                  <c:v>254.366666666666</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>250.5</c:v>
+                  <c:v>251.533333333333</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>248.0</c:v>
+                  <c:v>248.866666666666</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>245.333333333333</c:v>
+                  <c:v>246.75</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>243.166666666666</c:v>
+                  <c:v>244.75</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>240.75</c:v>
+                  <c:v>241.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>238.25</c:v>
+                  <c:v>239.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>236.0</c:v>
+                  <c:v>237.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>234.0</c:v>
+                  <c:v>234.5</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>231.333333333333</c:v>
+                  <c:v>232.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>228.833333333333</c:v>
+                  <c:v>230.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>226.416666666666</c:v>
+                  <c:v>227.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>223.666666666666</c:v>
+                  <c:v>225.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>220.916666666666</c:v>
+                  <c:v>222.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>218.166666666666</c:v>
+                  <c:v>219.75</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>215.833333333333</c:v>
+                  <c:v>217.5</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>213.666666666666</c:v>
+                  <c:v>215.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>211.416666666666</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>209.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>207.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>204.666666666666</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>203.083333333333</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>200.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$Y$2:$Y$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
-                <c:pt idx="0">
-                  <c:v>2.63333333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.31666666666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.0333333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19.6333333333333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>34.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41.8666666666666</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>49.3666666666666</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>56.8666666666666</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>65.8666666666666</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>73.6166666666666</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>80.6166666666666</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>84.6166666666666</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>92.1166666666666</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>98.6166666666666</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>105.483333333333</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>110.833333333333</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>118.316666666666</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>125.333333333333</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>131.883333333333</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>138.6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>147.816666666666</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>154.1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>159.1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>165.266666666666</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>171.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>178.766666666666</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>186.283333333333</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>192.6</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>198.133333333333</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>204.8</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>211.416666666666</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>218.316666666666</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>224.7</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>230.933333333333</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>236.35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>243.333333333333</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>247.933333333333</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>253.283333333333</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>258.066666666666</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>261.616666666666</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>264.4</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>265.833333333333</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>267.633333333333</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>270.2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>272.9</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>274.166666666666</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>274.483333333333</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>274.2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>273.483333333333</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>271.2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>268.95</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>268.033333333333</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>266.2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>264.116666666666</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>261.416666666666</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>260.166666666666</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>257.25</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>254.666666666666</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>251.833333333333</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>249.416666666666</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>246.833333333333</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>244.666666666666</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>242.083333333333</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>239.666666666666</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>237.25</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>234.333333333333</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>232.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>229.083333333333</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>226.5</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>224.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>221.25</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>218.416666666666</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>215.916666666666</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>212.666666666666</c:v>
+                  <c:v>212.75</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>209.5</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>206.416666666666</c:v>
+                  <c:v>207.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>203.916666666666</c:v>
+                  <c:v>204.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>201.75</c:v>
+                  <c:v>201.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -4957,11 +3003,11 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AB$1</c:f>
+              <c:f>Sheet1!$Z$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Taste 1 </c:v>
+                  <c:v> Taste 0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4969,497 +3015,516 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$81</c:f>
+              <c:f>Sheet1!$Z$2:$Z$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>2.56666666666666</c:v>
+                  <c:v>2.96666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.71666666666666</c:v>
+                  <c:v>6.48333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.0333333333333</c:v>
+                  <c:v>12.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.9</c:v>
+                  <c:v>20.9666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.9333333333333</c:v>
+                  <c:v>28.1333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.9166666666666</c:v>
+                  <c:v>35.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41.4166666666666</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49.4166666666666</c:v>
+                  <c:v>50.4333333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56.9166666666666</c:v>
+                  <c:v>57.9333333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>65.6666666666666</c:v>
+                  <c:v>63.9333333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>72.6666666666666</c:v>
+                  <c:v>71.18333333333329</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>79.4166666666666</c:v>
+                  <c:v>79.18333333333329</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>86.6666666666666</c:v>
+                  <c:v>90.18333333333329</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>93.4</c:v>
+                  <c:v>97.68333333333329</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>100.65</c:v>
+                  <c:v>106.183333333333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>106.95</c:v>
+                  <c:v>114.05</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>113.45</c:v>
+                  <c:v>123.3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>120.433333333333</c:v>
+                  <c:v>130.55</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>127.683333333333</c:v>
+                  <c:v>137.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>134.183333333333</c:v>
+                  <c:v>144.716666666666</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>141.166666666666</c:v>
+                  <c:v>151.2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>149.416666666666</c:v>
+                  <c:v>155.516666666666</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>157.75</c:v>
+                  <c:v>162.766666666666</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>165.783333333333</c:v>
+                  <c:v>171.033333333333</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>174.05</c:v>
+                  <c:v>177.133333333333</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>179.933333333333</c:v>
+                  <c:v>183.35</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>185.533333333333</c:v>
+                  <c:v>188.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>192.716666666666</c:v>
+                  <c:v>193.516666666666</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>199.966666666666</c:v>
+                  <c:v>200.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>205.9</c:v>
+                  <c:v>207.8</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>212.0</c:v>
+                  <c:v>214.533333333333</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>218.55</c:v>
+                  <c:v>220.983333333333</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>225.233333333333</c:v>
+                  <c:v>227.816666666666</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>229.15</c:v>
+                  <c:v>234.766666666666</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>234.85</c:v>
+                  <c:v>240.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>239.666666666666</c:v>
+                  <c:v>246.65</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>243.6</c:v>
+                  <c:v>250.6</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>248.433333333333</c:v>
+                  <c:v>256.933333333333</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>253.366666666666</c:v>
+                  <c:v>259.25</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>258.833333333333</c:v>
+                  <c:v>263.2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>263.716666666666</c:v>
+                  <c:v>268.25</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>267.4</c:v>
+                  <c:v>271.6</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>270.416666666666</c:v>
+                  <c:v>273.966666666666</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>271.25</c:v>
+                  <c:v>275.233333333333</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>272.8</c:v>
+                  <c:v>275.466666666666</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>274.033333333333</c:v>
+                  <c:v>274.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>272.566666666666</c:v>
+                  <c:v>274.1</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>272.55</c:v>
+                  <c:v>272.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>271.266666666666</c:v>
+                  <c:v>270.6</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>269.416666666666</c:v>
+                  <c:v>268.85</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>267.083333333333</c:v>
+                  <c:v>267.933333333333</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>265.583333333333</c:v>
+                  <c:v>266.05</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>263.5</c:v>
+                  <c:v>263.966666666666</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>260.75</c:v>
+                  <c:v>261.466666666666</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>257.666666666666</c:v>
+                  <c:v>258.883333333333</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>255.75</c:v>
+                  <c:v>257.383333333333</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>253.583333333333</c:v>
+                  <c:v>254.3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>251.916666666666</c:v>
+                  <c:v>252.216666666666</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>250.5</c:v>
+                  <c:v>250.133333333333</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>248.0</c:v>
+                  <c:v>248.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>245.333333333333</c:v>
+                  <c:v>245.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>243.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>240.75</c:v>
+                  <c:v>240.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>238.25</c:v>
+                  <c:v>237.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>236.0</c:v>
+                  <c:v>235.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>234.0</c:v>
+                  <c:v>232.75</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>231.333333333333</c:v>
+                  <c:v>230.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>228.833333333333</c:v>
+                  <c:v>228.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>226.416666666666</c:v>
+                  <c:v>225.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>223.666666666666</c:v>
+                  <c:v>223.5</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>220.916666666666</c:v>
+                  <c:v>221.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>218.166666666666</c:v>
+                  <c:v>218.75</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>215.833333333333</c:v>
+                  <c:v>216.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>213.666666666666</c:v>
+                  <c:v>214.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>211.416666666666</c:v>
+                  <c:v>212.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>209.0</c:v>
+                  <c:v>210.5</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>207.0</c:v>
+                  <c:v>208.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>204.666666666666</c:v>
+                  <c:v>206.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>203.083333333333</c:v>
+                  <c:v>203.25</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AC$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Taste 0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AB$2:$AB$81</c:f>
+              <c:f>Sheet1!$AC$2:$AC$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>2.63333333333333</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.06666666666666</c:v>
+                  <c:v>7.73333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.8</c:v>
+                  <c:v>13.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.35</c:v>
+                  <c:v>21.5833333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.6166666666666</c:v>
+                  <c:v>29.5166666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.0333333333333</c:v>
+                  <c:v>36.7666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.2833333333333</c:v>
+                  <c:v>42.5166666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52.0333333333333</c:v>
+                  <c:v>47.7666666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60.7833333333333</c:v>
+                  <c:v>54.0166666666666</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>67.5333333333333</c:v>
+                  <c:v>62.2666666666666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75.0333333333333</c:v>
+                  <c:v>69.7666666666666</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>83.7833333333333</c:v>
+                  <c:v>76.0166666666666</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>90.0333333333333</c:v>
+                  <c:v>84.7666666666666</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>96.5333333333333</c:v>
+                  <c:v>93.2666666666666</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>104.283333333333</c:v>
+                  <c:v>100.516666666666</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>112.45</c:v>
+                  <c:v>107.016666666666</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>121.183333333333</c:v>
+                  <c:v>112.816666666666</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>128.433333333333</c:v>
+                  <c:v>119.233333333333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>137.366666666666</c:v>
+                  <c:v>124.966666666666</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>144.35</c:v>
+                  <c:v>132.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>151.166666666666</c:v>
+                  <c:v>139.433333333333</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>158.233333333333</c:v>
+                  <c:v>145.9</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>164.466666666666</c:v>
+                  <c:v>153.866666666666</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>170.266666666666</c:v>
+                  <c:v>160.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>177.15</c:v>
+                  <c:v>166.983333333333</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>184.383333333333</c:v>
+                  <c:v>173.616666666666</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>189.383333333333</c:v>
+                  <c:v>181.683333333333</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>197.416666666666</c:v>
+                  <c:v>187.116666666666</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>203.633333333333</c:v>
+                  <c:v>194.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>210.1</c:v>
+                  <c:v>201.433333333333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>216.433333333333</c:v>
+                  <c:v>208.766666666666</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>222.8</c:v>
+                  <c:v>215.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>229.15</c:v>
+                  <c:v>221.05</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>235.7</c:v>
+                  <c:v>225.766666666666</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>242.166666666666</c:v>
+                  <c:v>232.033333333333</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>246.183333333333</c:v>
+                  <c:v>238.483333333333</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>252.2</c:v>
+                  <c:v>243.066666666666</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>258.266666666666</c:v>
+                  <c:v>248.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>254.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>259.166666666666</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>262.2</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>265.433333333333</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>270.333333333333</c:v>
-                </c:pt>
                 <c:pt idx="41">
-                  <c:v>274.3</c:v>
+                  <c:v>265.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>276.633333333333</c:v>
+                  <c:v>268.7</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>278.183333333333</c:v>
+                  <c:v>271.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>277.833333333333</c:v>
+                  <c:v>273.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>277.033333333333</c:v>
+                  <c:v>274.5</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>274.95</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>275.116666666666</c:v>
                 </c:pt>
-                <c:pt idx="47">
-                  <c:v>273.816666666666</c:v>
-                </c:pt>
                 <c:pt idx="48">
-                  <c:v>271.933333333333</c:v>
+                  <c:v>274.866666666666</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>269.766666666666</c:v>
+                  <c:v>274.7</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>266.933333333333</c:v>
+                  <c:v>273.533333333333</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>265.1</c:v>
+                  <c:v>271.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>263.516666666666</c:v>
+                  <c:v>269.55</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>260.933333333333</c:v>
+                  <c:v>267.4</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>258.1</c:v>
+                  <c:v>265.233333333333</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>255.666666666666</c:v>
+                  <c:v>263.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>252.416666666666</c:v>
+                  <c:v>262.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>249.833333333333</c:v>
+                  <c:v>260.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>247.5</c:v>
+                  <c:v>257.5</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>244.916666666666</c:v>
+                  <c:v>255.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>242.333333333333</c:v>
+                  <c:v>252.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>240.333333333333</c:v>
+                  <c:v>249.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>237.333333333333</c:v>
+                  <c:v>247.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>234.833333333333</c:v>
+                  <c:v>245.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>232.083333333333</c:v>
+                  <c:v>242.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="65">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>237.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>234.75</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>232.75</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>230.0</c:v>
                 </c:pt>
-                <c:pt idx="66">
-                  <c:v>227.5</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>225.25</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>222.25</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>220.0</c:v>
-                </c:pt>
                 <c:pt idx="70">
-                  <c:v>217.916666666666</c:v>
+                  <c:v>227.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>215.0</c:v>
+                  <c:v>225.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>212.666666666666</c:v>
+                  <c:v>222.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>210.333333333333</c:v>
+                  <c:v>219.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>208.5</c:v>
+                  <c:v>216.5</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>206.583333333333</c:v>
+                  <c:v>213.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>205.083333333333</c:v>
+                  <c:v>209.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>203.666666666666</c:v>
+                  <c:v>206.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>201.666666666666</c:v>
+                  <c:v>203.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -5479,21 +3544,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2113325352"/>
-        <c:axId val="-2101321240"/>
+        <c:axId val="2104036680"/>
+        <c:axId val="2103978536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2113325352"/>
+        <c:axId val="2104036680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2101321240"/>
+        <c:crossAx val="2103978536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5501,18 +3584,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2101321240"/>
+        <c:axId val="2103978536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Accumulated Payoff</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113325352"/>
+        <c:crossAx val="2104036680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5559,11 +3661,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Taste 0</c:v>
+                  <c:v>Taste 1 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5573,246 +3675,246 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$82</c:f>
+              <c:f>Sheet1!$A$2:$A$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>2.83333333333333</c:v>
+                  <c:v>2.56666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.21666666666666</c:v>
+                  <c:v>6.71666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.2333333333333</c:v>
+                  <c:v>14.0333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.5</c:v>
+                  <c:v>19.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.6</c:v>
+                  <c:v>27.9333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.0833333333333</c:v>
+                  <c:v>34.9166666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44.25</c:v>
+                  <c:v>41.4166666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51.25</c:v>
+                  <c:v>49.4166666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58.75</c:v>
+                  <c:v>56.9166666666666</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>65.0</c:v>
+                  <c:v>65.6666666666666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>73.0</c:v>
+                  <c:v>72.6666666666666</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>81.25</c:v>
+                  <c:v>79.4166666666666</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>88.8</c:v>
+                  <c:v>86.6666666666666</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>96.6</c:v>
+                  <c:v>93.4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>104.15</c:v>
+                  <c:v>100.65</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>112.05</c:v>
+                  <c:v>106.95</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>120.083333333333</c:v>
+                  <c:v>113.45</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>127.433333333333</c:v>
+                  <c:v>120.433333333333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>134.45</c:v>
+                  <c:v>127.683333333333</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>142.416666666666</c:v>
+                  <c:v>134.183333333333</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>149.633333333333</c:v>
+                  <c:v>141.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>156.116666666666</c:v>
+                  <c:v>149.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>161.916666666666</c:v>
+                  <c:v>157.75</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>167.816666666666</c:v>
+                  <c:v>165.783333333333</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>173.016666666666</c:v>
+                  <c:v>174.05</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>181.066666666666</c:v>
+                  <c:v>179.933333333333</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>189.133333333333</c:v>
+                  <c:v>185.533333333333</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>195.083333333333</c:v>
+                  <c:v>192.716666666666</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>201.166666666666</c:v>
+                  <c:v>199.966666666666</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>206.833333333333</c:v>
+                  <c:v>205.9</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>211.733333333333</c:v>
+                  <c:v>212.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>216.85</c:v>
+                  <c:v>218.55</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>222.5</c:v>
+                  <c:v>225.233333333333</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>229.65</c:v>
+                  <c:v>229.15</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>235.816666666666</c:v>
+                  <c:v>234.85</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>239.933333333333</c:v>
+                  <c:v>239.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>244.133333333333</c:v>
+                  <c:v>243.6</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>248.433333333333</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>252.433333333333</c:v>
+                  <c:v>253.366666666666</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>256.033333333333</c:v>
+                  <c:v>258.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>259.883333333333</c:v>
+                  <c:v>263.716666666666</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>263.2</c:v>
+                  <c:v>267.4</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>264.516666666666</c:v>
+                  <c:v>270.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>267.283333333333</c:v>
+                  <c:v>271.25</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>268.6</c:v>
+                  <c:v>272.8</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>269.166666666666</c:v>
+                  <c:v>274.033333333333</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>268.566666666666</c:v>
+                  <c:v>272.566666666666</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>268.383333333333</c:v>
+                  <c:v>272.55</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>267.133333333333</c:v>
+                  <c:v>271.266666666666</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>266.716666666666</c:v>
+                  <c:v>269.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>267.383333333333</c:v>
+                  <c:v>267.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>266.216666666666</c:v>
+                  <c:v>265.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>264.766666666666</c:v>
+                  <c:v>263.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>263.116666666666</c:v>
+                  <c:v>260.75</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>261.866666666666</c:v>
+                  <c:v>257.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>259.45</c:v>
+                  <c:v>255.75</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>256.95</c:v>
+                  <c:v>253.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>254.616666666666</c:v>
+                  <c:v>251.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>252.7</c:v>
+                  <c:v>250.5</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>250.666666666666</c:v>
+                  <c:v>248.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>248.333333333333</c:v>
+                  <c:v>245.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>245.833333333333</c:v>
+                  <c:v>243.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>243.25</c:v>
+                  <c:v>240.75</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>240.75</c:v>
+                  <c:v>238.25</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>238.333333333333</c:v>
+                  <c:v>236.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>236.0</c:v>
+                  <c:v>234.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>233.666666666666</c:v>
+                  <c:v>231.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>231.166666666666</c:v>
+                  <c:v>228.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>228.583333333333</c:v>
+                  <c:v>226.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>226.333333333333</c:v>
+                  <c:v>223.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>224.083333333333</c:v>
+                  <c:v>220.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>221.833333333333</c:v>
+                  <c:v>218.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>219.166666666666</c:v>
+                  <c:v>215.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>216.333333333333</c:v>
+                  <c:v>213.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>213.583333333333</c:v>
+                  <c:v>211.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>211.0</c:v>
+                  <c:v>209.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>208.0</c:v>
+                  <c:v>207.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>205.333333333333</c:v>
+                  <c:v>204.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>201.916666666666</c:v>
+                  <c:v>203.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -5827,11 +3929,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Taste 0</c:v>
+                  <c:v>Taste 1 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5841,204 +3943,204 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$82</c:f>
+              <c:f>Sheet1!$D$2:$D$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>2.36666666666666</c:v>
+                  <c:v>1.83333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.48333333333333</c:v>
+                  <c:v>4.91666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.5333333333333</c:v>
+                  <c:v>10.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.95</c:v>
+                  <c:v>18.5166666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.2</c:v>
+                  <c:v>25.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.2</c:v>
+                  <c:v>34.0666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41.2</c:v>
+                  <c:v>41.0666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47.95</c:v>
+                  <c:v>49.1166666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56.7</c:v>
+                  <c:v>55.3666666666666</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>64.7</c:v>
+                  <c:v>62.3666666666666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>70.95</c:v>
+                  <c:v>71.1166666666666</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>78.7</c:v>
+                  <c:v>78.3666666666666</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>85.7</c:v>
+                  <c:v>86.3666666666666</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>92.95</c:v>
+                  <c:v>94.1166666666666</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>99.3833333333333</c:v>
+                  <c:v>102.616666666666</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>105.383333333333</c:v>
+                  <c:v>111.216666666666</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>112.55</c:v>
+                  <c:v>117.983333333333</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>118.733333333333</c:v>
+                  <c:v>126.466666666666</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>126.466666666666</c:v>
+                  <c:v>132.466666666666</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>132.433333333333</c:v>
+                  <c:v>139.9</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>138.516666666666</c:v>
+                  <c:v>147.616666666666</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>144.25</c:v>
+                  <c:v>155.35</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>150.8</c:v>
+                  <c:v>162.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>157.95</c:v>
+                  <c:v>167.383333333333</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>164.583333333333</c:v>
+                  <c:v>174.55</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>171.3</c:v>
+                  <c:v>181.3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>178.916666666666</c:v>
+                  <c:v>186.95</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>185.683333333333</c:v>
+                  <c:v>192.85</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>193.683333333333</c:v>
+                  <c:v>198.05</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>199.766666666666</c:v>
+                  <c:v>204.1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>206.133333333333</c:v>
+                  <c:v>209.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>212.7</c:v>
+                  <c:v>215.633333333333</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>218.833333333333</c:v>
+                  <c:v>221.9</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>224.283333333333</c:v>
+                  <c:v>227.65</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>228.3</c:v>
+                  <c:v>236.5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>234.65</c:v>
+                  <c:v>242.95</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>241.433333333333</c:v>
+                  <c:v>247.433333333333</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>247.333333333333</c:v>
+                  <c:v>250.6</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>253.466666666666</c:v>
+                  <c:v>254.866666666666</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>257.583333333333</c:v>
+                  <c:v>259.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>261.733333333333</c:v>
+                  <c:v>263.266666666666</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>265.466666666666</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>268.3</c:v>
+                  <c:v>267.1</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>271.45</c:v>
+                  <c:v>269.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>274.183333333333</c:v>
+                  <c:v>271.816666666666</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>274.483333333333</c:v>
+                  <c:v>271.516666666666</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>273.883333333333</c:v>
+                  <c:v>272.183333333333</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>273.233333333333</c:v>
+                  <c:v>271.3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>273.2</c:v>
+                  <c:v>270.8</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>273.516666666666</c:v>
+                  <c:v>270.216666666666</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>272.866666666666</c:v>
+                  <c:v>268.066666666666</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>270.716666666666</c:v>
+                  <c:v>266.15</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>268.516666666666</c:v>
+                  <c:v>264.816666666666</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>265.933333333333</c:v>
+                  <c:v>263.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>263.266666666666</c:v>
+                  <c:v>261.4</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>260.5</c:v>
+                  <c:v>259.3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>258.166666666666</c:v>
+                  <c:v>256.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>255.75</c:v>
+                  <c:v>254.25</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>253.333333333333</c:v>
+                  <c:v>251.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>250.583333333333</c:v>
+                  <c:v>249.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>247.916666666666</c:v>
+                  <c:v>247.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>245.5</c:v>
+                  <c:v>244.5</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>242.916666666666</c:v>
+                  <c:v>242.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>240.5</c:v>
+                  <c:v>239.5</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>238.0</c:v>
+                  <c:v>237.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>235.0</c:v>
@@ -6047,40 +4149,40 @@
                   <c:v>232.5</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>230.25</c:v>
+                  <c:v>229.75</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>227.75</c:v>
+                  <c:v>227.25</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>225.5</c:v>
+                  <c:v>224.5</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>222.75</c:v>
+                  <c:v>222.25</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>220.25</c:v>
+                  <c:v>219.75</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>217.333333333333</c:v>
+                  <c:v>217.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>215.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>212.75</c:v>
+                  <c:v>212.25</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>210.166666666666</c:v>
+                  <c:v>209.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>207.833333333333</c:v>
+                  <c:v>207.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>205.333333333333</c:v>
+                  <c:v>204.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>202.25</c:v>
+                  <c:v>202.75</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -6095,11 +4197,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>Sheet1!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Taste 0</c:v>
+                  <c:v>Taste 1 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6109,246 +4211,246 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$82</c:f>
+              <c:f>Sheet1!$G$2:$G$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>2.56666666666666</c:v>
+                  <c:v>2.03333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.71666666666666</c:v>
+                  <c:v>7.48333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.0333333333333</c:v>
+                  <c:v>13.4333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.8333333333333</c:v>
+                  <c:v>19.9666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.5833333333333</c:v>
+                  <c:v>28.8833333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.5833333333333</c:v>
+                  <c:v>36.6833333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41.3333333333333</c:v>
+                  <c:v>44.9333333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49.2666666666666</c:v>
+                  <c:v>51.9333333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55.5166666666666</c:v>
+                  <c:v>60.6833333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>64.0166666666666</c:v>
+                  <c:v>67.18333333333329</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>72.0166666666666</c:v>
+                  <c:v>74.18333333333329</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>80.3833333333333</c:v>
+                  <c:v>80.68333333333329</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>87.3833333333333</c:v>
+                  <c:v>88.68333333333329</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>95.05</c:v>
+                  <c:v>95.2833333333333</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>102.05</c:v>
+                  <c:v>102.616666666666</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>109.016666666666</c:v>
+                  <c:v>109.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>117.416666666666</c:v>
+                  <c:v>115.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>123.566666666666</c:v>
+                  <c:v>122.966666666666</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>129.983333333333</c:v>
+                  <c:v>130.616666666666</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>136.216666666666</c:v>
+                  <c:v>137.65</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>144.166666666666</c:v>
+                  <c:v>143.7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>151.233333333333</c:v>
+                  <c:v>150.566666666666</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>159.066666666666</c:v>
+                  <c:v>156.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>166.666666666666</c:v>
+                  <c:v>161.8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>174.466666666666</c:v>
+                  <c:v>167.266666666666</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>181.783333333333</c:v>
+                  <c:v>173.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>186.866666666666</c:v>
+                  <c:v>181.2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>194.233333333333</c:v>
+                  <c:v>186.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>199.583333333333</c:v>
+                  <c:v>195.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>206.733333333333</c:v>
+                  <c:v>200.266666666666</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>212.1</c:v>
+                  <c:v>207.233333333333</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>218.966666666666</c:v>
+                  <c:v>212.433333333333</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>224.716666666666</c:v>
+                  <c:v>218.816666666666</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>230.2</c:v>
+                  <c:v>225.2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>235.933333333333</c:v>
+                  <c:v>231.866666666666</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>242.0</c:v>
+                  <c:v>235.8</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>248.75</c:v>
+                  <c:v>240.516666666666</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>253.633333333333</c:v>
+                  <c:v>245.9</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>257.25</c:v>
+                  <c:v>251.55</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>260.316666666666</c:v>
+                  <c:v>257.683333333333</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>263.333333333333</c:v>
+                  <c:v>262.466666666666</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>267.333333333333</c:v>
+                  <c:v>266.8</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>269.466666666666</c:v>
+                  <c:v>270.933333333333</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>270.05</c:v>
+                  <c:v>271.55</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>270.916666666666</c:v>
+                  <c:v>273.15</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>273.15</c:v>
+                  <c:v>275.65</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>273.466666666666</c:v>
+                  <c:v>276.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>273.233333333333</c:v>
+                  <c:v>275.5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>272.716666666666</c:v>
+                  <c:v>275.15</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>271.416666666666</c:v>
+                  <c:v>273.65</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>270.033333333333</c:v>
+                  <c:v>271.3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>267.85</c:v>
+                  <c:v>269.55</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>266.133333333333</c:v>
+                  <c:v>267.466666666666</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>263.716666666666</c:v>
+                  <c:v>265.55</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>261.633333333333</c:v>
+                  <c:v>262.966666666666</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>259.166666666666</c:v>
+                  <c:v>260.633333333333</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>256.666666666666</c:v>
+                  <c:v>258.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>253.666666666666</c:v>
+                  <c:v>256.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>251.25</c:v>
+                  <c:v>253.75</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>248.5</c:v>
+                  <c:v>251.5</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>245.833333333333</c:v>
+                  <c:v>249.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>243.25</c:v>
+                  <c:v>246.75</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>240.583333333333</c:v>
+                  <c:v>244.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>237.75</c:v>
+                  <c:v>242.25</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>235.0</c:v>
+                  <c:v>240.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>232.75</c:v>
+                  <c:v>237.25</c:v>
                 </c:pt>
                 <c:pt idx="66">
+                  <c:v>234.75</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>232.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>230.25</c:v>
                 </c:pt>
-                <c:pt idx="67">
-                  <c:v>227.666666666666</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>224.75</c:v>
-                </c:pt>
                 <c:pt idx="69">
-                  <c:v>222.166666666666</c:v>
+                  <c:v>227.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>219.916666666666</c:v>
+                  <c:v>225.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>217.583333333333</c:v>
+                  <c:v>222.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>215.166666666666</c:v>
+                  <c:v>219.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>213.0</c:v>
+                  <c:v>217.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>211.083333333333</c:v>
+                  <c:v>213.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>209.25</c:v>
+                  <c:v>210.75</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>207.25</c:v>
+                  <c:v>207.75</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>204.916666666666</c:v>
+                  <c:v>205.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>203.333333333333</c:v>
+                  <c:v>201.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -6363,11 +4465,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$1</c:f>
+              <c:f>Sheet1!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Taste 0</c:v>
+                  <c:v>Taste 1 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6377,246 +4479,246 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$K$82</c:f>
+              <c:f>Sheet1!$J$2:$J$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>2.76666666666666</c:v>
+                  <c:v>2.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.96666666666666</c:v>
+                  <c:v>7.43333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.9333333333333</c:v>
+                  <c:v>11.0666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.4333333333333</c:v>
+                  <c:v>17.3666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.7833333333333</c:v>
+                  <c:v>24.2166666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.2833333333333</c:v>
+                  <c:v>31.7166666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.2833333333333</c:v>
+                  <c:v>39.7166666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52.5333333333333</c:v>
+                  <c:v>47.4666666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60.7833333333333</c:v>
+                  <c:v>54.2166666666666</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>69.0333333333333</c:v>
+                  <c:v>60.9666666666666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75.7833333333333</c:v>
+                  <c:v>69.2166666666666</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>82.7833333333333</c:v>
+                  <c:v>77.2166666666666</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>90.0333333333333</c:v>
+                  <c:v>84.9666666666666</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>98.5333333333333</c:v>
+                  <c:v>91.4666666666666</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>106.783333333333</c:v>
+                  <c:v>98.0833333333333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>113.716666666666</c:v>
+                  <c:v>105.683333333333</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>120.0</c:v>
+                  <c:v>113.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>127.0</c:v>
+                  <c:v>120.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>134.216666666666</c:v>
+                  <c:v>127.45</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>139.933333333333</c:v>
+                  <c:v>135.533333333333</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>147.25</c:v>
+                  <c:v>141.683333333333</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>153.133333333333</c:v>
+                  <c:v>148.533333333333</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>158.516666666666</c:v>
+                  <c:v>156.95</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>165.6</c:v>
+                  <c:v>162.8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>172.066666666666</c:v>
+                  <c:v>170.133333333333</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>177.55</c:v>
+                  <c:v>178.316666666666</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>185.416666666666</c:v>
+                  <c:v>183.65</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>192.2</c:v>
+                  <c:v>190.6</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>198.416666666666</c:v>
+                  <c:v>197.383333333333</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>203.733333333333</c:v>
+                  <c:v>205.2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>210.583333333333</c:v>
+                  <c:v>210.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>216.283333333333</c:v>
+                  <c:v>216.516666666666</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>220.55</c:v>
+                  <c:v>224.183333333333</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>227.0</c:v>
+                  <c:v>231.133333333333</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>232.566666666666</c:v>
+                  <c:v>237.366666666666</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>241.016666666666</c:v>
+                  <c:v>240.783333333333</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>246.716666666666</c:v>
+                  <c:v>246.35</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>252.383333333333</c:v>
+                  <c:v>253.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>257.283333333333</c:v>
+                  <c:v>257.516666666666</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>262.95</c:v>
+                  <c:v>261.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>269.066666666666</c:v>
+                  <c:v>264.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>271.583333333333</c:v>
+                  <c:v>267.15</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>274.783333333333</c:v>
+                  <c:v>270.95</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>276.933333333333</c:v>
+                  <c:v>274.266666666666</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>278.266666666666</c:v>
+                  <c:v>276.8</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>279.6</c:v>
+                  <c:v>277.866666666666</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>279.7</c:v>
+                  <c:v>277.433333333333</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>278.433333333333</c:v>
+                  <c:v>275.7</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>275.766666666666</c:v>
+                  <c:v>275.033333333333</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>273.85</c:v>
+                  <c:v>274.016666666666</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>272.383333333333</c:v>
+                  <c:v>271.883333333333</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>269.716666666666</c:v>
+                  <c:v>269.883333333333</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>266.833333333333</c:v>
+                  <c:v>267.966666666666</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>264.583333333333</c:v>
+                  <c:v>265.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>261.916666666666</c:v>
+                  <c:v>263.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>259.5</c:v>
+                  <c:v>260.5</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>256.833333333333</c:v>
+                  <c:v>258.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>254.333333333333</c:v>
+                  <c:v>255.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>252.166666666666</c:v>
+                  <c:v>252.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>249.25</c:v>
+                  <c:v>250.75</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>247.083333333333</c:v>
+                  <c:v>247.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>244.583333333333</c:v>
+                  <c:v>245.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>242.333333333333</c:v>
+                  <c:v>242.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>239.666666666666</c:v>
+                  <c:v>240.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>237.25</c:v>
+                  <c:v>237.75</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>235.083333333333</c:v>
+                  <c:v>234.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>232.916666666666</c:v>
+                  <c:v>232.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>230.25</c:v>
+                  <c:v>229.75</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>227.75</c:v>
+                  <c:v>227.25</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>224.583333333333</c:v>
+                  <c:v>225.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>222.25</c:v>
+                  <c:v>222.75</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>220.166666666666</c:v>
+                  <c:v>219.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>217.583333333333</c:v>
+                  <c:v>217.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>215.083333333333</c:v>
+                  <c:v>214.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>213.25</c:v>
+                  <c:v>211.75</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>210.166666666666</c:v>
+                  <c:v>209.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>206.833333333333</c:v>
+                  <c:v>208.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>204.166666666666</c:v>
+                  <c:v>205.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>201.5</c:v>
+                  <c:v>203.5</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -6631,11 +4733,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$1</c:f>
+              <c:f>Sheet1!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Taste 0</c:v>
+                  <c:v>Taste 1 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6645,246 +4747,246 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$82</c:f>
+              <c:f>Sheet1!$M$2:$M$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>2.43333333333333</c:v>
+                  <c:v>2.96666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.53333333333333</c:v>
+                  <c:v>7.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.93333333333333</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.8166666666666</c:v>
+                  <c:v>22.7166666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.2833333333333</c:v>
+                  <c:v>30.85</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.5833333333333</c:v>
+                  <c:v>39.35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.3166666666666</c:v>
+                  <c:v>48.35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.05</c:v>
+                  <c:v>57.2833333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46.55</c:v>
+                  <c:v>65.7833333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54.4166666666666</c:v>
+                  <c:v>72.7833333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>61.1666666666666</c:v>
+                  <c:v>81.0333333333333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>68.4166666666666</c:v>
+                  <c:v>88.7833333333333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>75.1666666666666</c:v>
+                  <c:v>97.0333333333333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>81.9166666666666</c:v>
+                  <c:v>105.283333333333</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>89.9166666666666</c:v>
+                  <c:v>112.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>97.6666666666666</c:v>
+                  <c:v>119.066666666666</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>103.783333333333</c:v>
+                  <c:v>126.75</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>110.616666666666</c:v>
+                  <c:v>133.85</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>116.783333333333</c:v>
+                  <c:v>141.35</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>123.716666666666</c:v>
+                  <c:v>147.683333333333</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>129.783333333333</c:v>
+                  <c:v>155.283333333333</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>136.766666666666</c:v>
+                  <c:v>161.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>143.05</c:v>
+                  <c:v>168.75</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>148.966666666666</c:v>
+                  <c:v>176.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>155.933333333333</c:v>
+                  <c:v>183.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>163.233333333333</c:v>
+                  <c:v>189.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>170.1</c:v>
+                  <c:v>195.033333333333</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>177.716666666666</c:v>
+                  <c:v>199.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>184.65</c:v>
+                  <c:v>205.616666666666</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>191.4</c:v>
+                  <c:v>212.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>198.216666666666</c:v>
+                  <c:v>218.783333333333</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>223.683333333333</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>228.933333333333</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>233.45</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>238.716666666666</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>245.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>249.416666666666</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>253.033333333333</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>255.433333333333</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>260.766666666666</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>264.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>266.75</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>268.35</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>268.583333333333</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>268.366666666666</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>267.983333333333</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>267.55</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>265.633333333333</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>264.45</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>262.85</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>261.35</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>260.266666666666</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>258.433333333333</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>257.433333333333</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>255.766666666666</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>253.933333333333</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>253.433333333333</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>252.483333333333</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>249.4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>247.116666666666</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>244.783333333333</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>243.45</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>241.283333333333</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>239.616666666666</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>236.783333333333</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>233.783333333333</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>231.416666666666</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>229.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>226.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>224.083333333333</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>222.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>219.166666666666</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>216.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>214.25</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>212.25</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>210.916666666666</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>208.916666666666</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>206.25</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>214.2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>221.616666666666</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>228.55</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>233.533333333333</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>237.383333333333</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>242.9</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>250.166666666666</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>254.5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>257.566666666666</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>260.116666666666</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>264.516666666666</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>267.55</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>268.9</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>270.416666666666</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>271.45</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>273.033333333333</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>272.816666666666</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>273.016666666666</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>271.783333333333</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>269.866666666666</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>268.966666666666</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>266.833333333333</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>264.833333333333</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>262.666666666666</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>259.5</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>256.583333333333</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>254.666666666666</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>252.083333333333</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>249.416666666666</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>246.083333333333</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>243.25</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>240.25</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>238.083333333333</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>236.083333333333</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>233.583333333333</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>231.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>228.666666666666</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>225.916666666666</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>223.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>220.833333333333</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>218.333333333333</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>215.75</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>212.75</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>209.083333333333</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>206.083333333333</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>203.75</c:v>
-                </c:pt>
                 <c:pt idx="78">
-                  <c:v>201.0</c:v>
+                  <c:v>204.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -6899,11 +5001,11 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$1</c:f>
+              <c:f>Sheet1!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Taste 0</c:v>
+                  <c:v>Taste 1 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6913,246 +5015,246 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$82</c:f>
+              <c:f>Sheet1!$P$2:$P$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>2.5</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.75</c:v>
+                  <c:v>5.71666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.2166666666666</c:v>
+                  <c:v>10.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.2</c:v>
+                  <c:v>16.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.6833333333333</c:v>
+                  <c:v>22.1166666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.9333333333333</c:v>
+                  <c:v>30.7333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.6833333333333</c:v>
+                  <c:v>37.9833333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51.6833333333333</c:v>
+                  <c:v>46.9833333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57.1833333333333</c:v>
+                  <c:v>56.4833333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>64.93333333333329</c:v>
+                  <c:v>63.7333333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>73.18333333333329</c:v>
+                  <c:v>70.48333333333331</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>81.18333333333329</c:v>
+                  <c:v>77.48333333333331</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>87.93333333333329</c:v>
+                  <c:v>85.73333333333331</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>94.43333333333329</c:v>
+                  <c:v>94.23333333333331</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>101.233333333333</c:v>
+                  <c:v>102.233333333333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>108.6</c:v>
+                  <c:v>109.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>114.383333333333</c:v>
+                  <c:v>118.483333333333</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>121.0</c:v>
+                  <c:v>126.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>127.516666666666</c:v>
+                  <c:v>134.216666666666</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>134.116666666666</c:v>
+                  <c:v>140.95</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>140.516666666666</c:v>
+                  <c:v>147.683333333333</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>148.016666666666</c:v>
+                  <c:v>154.383333333333</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>155.066666666666</c:v>
+                  <c:v>160.266666666666</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>163.033333333333</c:v>
+                  <c:v>166.033333333333</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>170.65</c:v>
+                  <c:v>171.616666666666</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>178.166666666666</c:v>
+                  <c:v>177.766666666666</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>183.05</c:v>
+                  <c:v>186.15</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>188.533333333333</c:v>
+                  <c:v>193.8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>195.216666666666</c:v>
+                  <c:v>200.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>201.35</c:v>
+                  <c:v>206.983333333333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>207.283333333333</c:v>
+                  <c:v>213.783333333333</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>213.466666666666</c:v>
+                  <c:v>219.866666666666</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>219.033333333333</c:v>
+                  <c:v>227.3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>225.15</c:v>
+                  <c:v>233.65</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>231.416666666666</c:v>
+                  <c:v>239.183333333333</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>236.633333333333</c:v>
+                  <c:v>245.9</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>240.883333333333</c:v>
+                  <c:v>252.383333333333</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>246.316666666666</c:v>
+                  <c:v>258.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>251.683333333333</c:v>
+                  <c:v>262.116666666666</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>256.683333333333</c:v>
+                  <c:v>265.45</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>262.216666666666</c:v>
+                  <c:v>267.25</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>266.183333333333</c:v>
+                  <c:v>270.35</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>269.166666666666</c:v>
+                  <c:v>273.966666666666</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>270.966666666666</c:v>
+                  <c:v>275.033333333333</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>272.816666666666</c:v>
+                  <c:v>275.983333333333</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>273.0</c:v>
+                  <c:v>276.466666666666</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>276.616666666666</c:v>
+                  <c:v>276.05</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>276.733333333333</c:v>
+                  <c:v>273.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>277.3</c:v>
+                  <c:v>271.566666666666</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>276.0</c:v>
+                  <c:v>269.533333333333</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>274.85</c:v>
+                  <c:v>267.75</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>272.833333333333</c:v>
+                  <c:v>265.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>270.916666666666</c:v>
+                  <c:v>262.75</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>267.833333333333</c:v>
+                  <c:v>261.5</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>265.0</c:v>
+                  <c:v>259.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>262.416666666666</c:v>
+                  <c:v>256.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>259.833333333333</c:v>
+                  <c:v>255.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>257.083333333333</c:v>
+                  <c:v>252.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>254.833333333333</c:v>
+                  <c:v>250.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>252.916666666666</c:v>
+                  <c:v>247.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>250.166666666666</c:v>
+                  <c:v>244.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>247.666666666666</c:v>
+                  <c:v>242.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>244.916666666666</c:v>
+                  <c:v>240.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>242.75</c:v>
+                  <c:v>237.25</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>240.416666666666</c:v>
+                  <c:v>234.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>237.916666666666</c:v>
+                  <c:v>232.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>235.916666666666</c:v>
+                  <c:v>229.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>233.916666666666</c:v>
+                  <c:v>226.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>231.0</c:v>
+                  <c:v>224.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>227.916666666666</c:v>
+                  <c:v>222.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>225.083333333333</c:v>
+                  <c:v>219.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>222.666666666666</c:v>
+                  <c:v>217.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>220.0</c:v>
+                  <c:v>215.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>216.833333333333</c:v>
+                  <c:v>213.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>213.833333333333</c:v>
+                  <c:v>211.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>211.083333333333</c:v>
+                  <c:v>208.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>209.0</c:v>
+                  <c:v>206.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>206.25</c:v>
+                  <c:v>203.75</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>203.416666666666</c:v>
+                  <c:v>201.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -7167,11 +5269,11 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$T$1</c:f>
+              <c:f>Sheet1!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Taste 0</c:v>
+                  <c:v>Taste 1 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7181,246 +5283,246 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$2:$T$82</c:f>
+              <c:f>Sheet1!$S$2:$S$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>2.63333333333333</c:v>
+                  <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.03333333333333</c:v>
+                  <c:v>8.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.7666666666666</c:v>
+                  <c:v>14.0333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.75</c:v>
+                  <c:v>20.7166666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.75</c:v>
+                  <c:v>27.45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.5</c:v>
+                  <c:v>35.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.5</c:v>
+                  <c:v>44.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.25</c:v>
+                  <c:v>51.95</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57.0</c:v>
+                  <c:v>60.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>62.6166666666666</c:v>
+                  <c:v>69.45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>70.6166666666666</c:v>
+                  <c:v>76.45</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>78.8666666666666</c:v>
+                  <c:v>83.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>86.3666666666666</c:v>
+                  <c:v>90.7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>91.6166666666666</c:v>
+                  <c:v>100.45</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>98.8666666666666</c:v>
+                  <c:v>107.866666666666</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>106.866666666666</c:v>
+                  <c:v>114.866666666666</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>113.766666666666</c:v>
+                  <c:v>121.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>120.583333333333</c:v>
+                  <c:v>128.616666666666</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>127.5</c:v>
+                  <c:v>135.366666666666</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>133.866666666666</c:v>
+                  <c:v>143.2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>140.4</c:v>
+                  <c:v>150.466666666666</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>148.05</c:v>
+                  <c:v>156.95</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>155.65</c:v>
+                  <c:v>163.15</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>163.133333333333</c:v>
+                  <c:v>169.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>170.666666666666</c:v>
+                  <c:v>175.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>176.75</c:v>
+                  <c:v>182.65</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>182.55</c:v>
+                  <c:v>190.25</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>189.65</c:v>
+                  <c:v>196.283333333333</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>196.483333333333</c:v>
+                  <c:v>201.783333333333</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>201.433333333333</c:v>
+                  <c:v>208.633333333333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>207.133333333333</c:v>
+                  <c:v>214.8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>214.866666666666</c:v>
+                  <c:v>219.933333333333</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>220.033333333333</c:v>
+                  <c:v>226.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>226.8</c:v>
+                  <c:v>232.533333333333</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>232.233333333333</c:v>
+                  <c:v>239.5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>237.983333333333</c:v>
+                  <c:v>244.016666666666</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>243.7</c:v>
+                  <c:v>250.366666666666</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>251.483333333333</c:v>
+                  <c:v>254.983333333333</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>257.95</c:v>
+                  <c:v>259.316666666666</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>262.483333333333</c:v>
+                  <c:v>262.983333333333</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>267.55</c:v>
+                  <c:v>266.783333333333</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>271.283333333333</c:v>
+                  <c:v>271.05</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>275.216666666666</c:v>
+                  <c:v>273.45</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>277.65</c:v>
+                  <c:v>275.016666666666</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>279.95</c:v>
+                  <c:v>277.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>281.066666666666</c:v>
+                  <c:v>279.2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>282.233333333333</c:v>
+                  <c:v>278.366666666666</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>281.533333333333</c:v>
+                  <c:v>277.2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>279.333333333333</c:v>
+                  <c:v>274.866666666666</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>277.666666666666</c:v>
+                  <c:v>272.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>275.333333333333</c:v>
+                  <c:v>269.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>273.75</c:v>
+                  <c:v>266.25</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>271.333333333333</c:v>
+                  <c:v>263.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>269.0</c:v>
+                  <c:v>261.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>266.583333333333</c:v>
+                  <c:v>258.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>264.5</c:v>
+                  <c:v>255.5</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>261.916666666666</c:v>
+                  <c:v>253.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>259.666666666666</c:v>
+                  <c:v>250.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>257.083333333333</c:v>
+                  <c:v>247.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>255.0</c:v>
+                  <c:v>245.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>252.5</c:v>
+                  <c:v>242.5</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>249.75</c:v>
+                  <c:v>240.25</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>247.416666666666</c:v>
+                  <c:v>237.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>245.25</c:v>
+                  <c:v>234.75</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>242.25</c:v>
+                  <c:v>232.75</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>239.833333333333</c:v>
+                  <c:v>230.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>237.25</c:v>
+                  <c:v>227.75</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>235.083333333333</c:v>
+                  <c:v>224.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>232.5</c:v>
+                  <c:v>222.5</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>230.0</c:v>
+                  <c:v>220.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>228.166666666666</c:v>
+                  <c:v>216.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>225.333333333333</c:v>
+                  <c:v>214.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>223.166666666666</c:v>
+                  <c:v>211.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>220.25</c:v>
+                  <c:v>209.75</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>217.25</c:v>
+                  <c:v>207.75</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>213.833333333333</c:v>
+                  <c:v>206.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>210.666666666666</c:v>
+                  <c:v>204.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>207.083333333333</c:v>
+                  <c:v>202.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>203.5</c:v>
+                  <c:v>201.5</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -7435,11 +5537,11 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$W$1</c:f>
+              <c:f>Sheet1!$V$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Taste 0</c:v>
+                  <c:v>Taste 1 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7449,246 +5551,246 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$W$2:$W$82</c:f>
+              <c:f>Sheet1!$V$2:$V$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>2.5</c:v>
+                  <c:v>2.16666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.38333333333333</c:v>
+                  <c:v>5.88333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.4166666666666</c:v>
+                  <c:v>10.85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.6</c:v>
+                  <c:v>18.1333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.1166666666666</c:v>
+                  <c:v>24.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.4833333333333</c:v>
+                  <c:v>33.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.7333333333333</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49.0333333333333</c:v>
+                  <c:v>47.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>54.5333333333333</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>61.0333333333333</c:v>
+                  <c:v>65.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>70.2833333333333</c:v>
+                  <c:v>71.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>78.5333333333333</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>84.7833333333333</c:v>
+                  <c:v>86.75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>92.7833333333333</c:v>
+                  <c:v>93.75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>97.9</c:v>
+                  <c:v>103.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>105.4</c:v>
+                  <c:v>110.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>112.383333333333</c:v>
+                  <c:v>117.816666666666</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>121.633333333333</c:v>
+                  <c:v>123.3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>129.233333333333</c:v>
+                  <c:v>129.1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>136.383333333333</c:v>
+                  <c:v>135.75</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>142.916666666666</c:v>
+                  <c:v>143.15</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>150.766666666666</c:v>
+                  <c:v>148.7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>156.2</c:v>
+                  <c:v>155.733333333333</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>162.666666666666</c:v>
+                  <c:v>162.6</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>171.783333333333</c:v>
+                  <c:v>167.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>178.983333333333</c:v>
+                  <c:v>173.75</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>183.2</c:v>
+                  <c:v>182.066666666666</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>190.45</c:v>
+                  <c:v>186.95</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>197.733333333333</c:v>
+                  <c:v>192.6</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>203.433333333333</c:v>
+                  <c:v>200.233333333333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>210.566666666666</c:v>
+                  <c:v>205.966666666666</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>216.516666666666</c:v>
+                  <c:v>212.283333333333</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>223.983333333333</c:v>
+                  <c:v>217.616666666666</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>227.916666666666</c:v>
+                  <c:v>223.55</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>233.466666666666</c:v>
+                  <c:v>230.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>239.2</c:v>
+                  <c:v>235.933333333333</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>244.116666666666</c:v>
+                  <c:v>243.15</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>250.433333333333</c:v>
+                  <c:v>248.033333333333</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>255.85</c:v>
+                  <c:v>254.016666666666</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>259.7</c:v>
+                  <c:v>259.9</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>263.783333333333</c:v>
+                  <c:v>262.883333333333</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>267.9</c:v>
+                  <c:v>266.233333333333</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>272.116666666666</c:v>
+                  <c:v>269.883333333333</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>275.266666666666</c:v>
+                  <c:v>271.2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>276.883333333333</c:v>
+                  <c:v>271.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>277.1</c:v>
+                  <c:v>272.233333333333</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>276.95</c:v>
+                  <c:v>271.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>276.516666666666</c:v>
+                  <c:v>272.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>274.883333333333</c:v>
+                  <c:v>270.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>272.8</c:v>
+                  <c:v>270.466666666666</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>270.366666666666</c:v>
+                  <c:v>269.366666666666</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>268.783333333333</c:v>
+                  <c:v>266.683333333333</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>266.033333333333</c:v>
+                  <c:v>265.433333333333</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>263.366666666666</c:v>
+                  <c:v>263.433333333333</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>261.116666666666</c:v>
+                  <c:v>261.95</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>259.366666666666</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>257.45</c:v>
+                  <c:v>257.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>254.366666666666</c:v>
+                  <c:v>255.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>251.533333333333</c:v>
+                  <c:v>253.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>248.866666666666</c:v>
+                  <c:v>250.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>246.75</c:v>
+                  <c:v>248.25</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>244.75</c:v>
+                  <c:v>245.25</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>241.833333333333</c:v>
+                  <c:v>243.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>239.583333333333</c:v>
+                  <c:v>240.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>237.0</c:v>
+                  <c:v>238.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>234.5</c:v>
+                  <c:v>235.5</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>232.083333333333</c:v>
+                  <c:v>232.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>230.083333333333</c:v>
+                  <c:v>229.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>227.583333333333</c:v>
+                  <c:v>227.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>225.083333333333</c:v>
+                  <c:v>224.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>222.083333333333</c:v>
+                  <c:v>222.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>219.75</c:v>
+                  <c:v>220.25</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>217.5</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>215.583333333333</c:v>
+                  <c:v>214.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>212.75</c:v>
+                  <c:v>212.25</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>209.5</c:v>
+                  <c:v>210.5</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>207.083333333333</c:v>
+                  <c:v>207.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>204.416666666666</c:v>
+                  <c:v>205.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>201.833333333333</c:v>
+                  <c:v>203.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -7703,11 +5805,11 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Z$1</c:f>
+              <c:f>Sheet1!$Y$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Taste 0</c:v>
+                  <c:v>Taste 1 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7717,246 +5819,246 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Z$2:$Z$82</c:f>
+              <c:f>Sheet1!$Y$2:$Y$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>2.96666666666666</c:v>
+                  <c:v>2.63333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.48333333333333</c:v>
+                  <c:v>7.31666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.3</c:v>
+                  <c:v>14.0333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.9666666666666</c:v>
+                  <c:v>19.6333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.1333333333333</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.25</c:v>
+                  <c:v>34.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43.0</c:v>
+                  <c:v>41.8666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.4333333333333</c:v>
+                  <c:v>49.3666666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57.9333333333333</c:v>
+                  <c:v>56.8666666666666</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63.9333333333333</c:v>
+                  <c:v>65.8666666666666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>71.18333333333329</c:v>
+                  <c:v>73.6166666666666</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>79.18333333333329</c:v>
+                  <c:v>80.6166666666666</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>90.18333333333329</c:v>
+                  <c:v>84.6166666666666</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>97.68333333333329</c:v>
+                  <c:v>92.1166666666666</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>106.183333333333</c:v>
+                  <c:v>98.6166666666666</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>114.05</c:v>
+                  <c:v>105.483333333333</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>123.3</c:v>
+                  <c:v>110.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>130.55</c:v>
+                  <c:v>118.316666666666</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>137.2</c:v>
+                  <c:v>125.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>144.716666666666</c:v>
+                  <c:v>131.883333333333</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>151.2</c:v>
+                  <c:v>138.6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>155.516666666666</c:v>
+                  <c:v>147.816666666666</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>162.766666666666</c:v>
+                  <c:v>154.1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>171.033333333333</c:v>
+                  <c:v>159.1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>177.133333333333</c:v>
+                  <c:v>165.266666666666</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>183.35</c:v>
+                  <c:v>171.783333333333</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>188.5</c:v>
+                  <c:v>178.766666666666</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>193.516666666666</c:v>
+                  <c:v>186.283333333333</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>200.666666666666</c:v>
+                  <c:v>192.6</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>207.8</c:v>
+                  <c:v>198.133333333333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>214.533333333333</c:v>
+                  <c:v>204.8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>220.983333333333</c:v>
+                  <c:v>211.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>227.816666666666</c:v>
+                  <c:v>218.316666666666</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>234.766666666666</c:v>
+                  <c:v>224.7</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>240.333333333333</c:v>
+                  <c:v>230.933333333333</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>246.65</c:v>
+                  <c:v>236.35</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>250.6</c:v>
+                  <c:v>243.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>256.933333333333</c:v>
+                  <c:v>247.933333333333</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>259.25</c:v>
+                  <c:v>253.283333333333</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>263.2</c:v>
+                  <c:v>258.066666666666</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>268.25</c:v>
+                  <c:v>261.616666666666</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>271.6</c:v>
+                  <c:v>264.4</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>273.966666666666</c:v>
+                  <c:v>265.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>275.233333333333</c:v>
+                  <c:v>267.633333333333</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>275.466666666666</c:v>
+                  <c:v>270.2</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>272.9</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>274.166666666666</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>274.1</c:v>
-                </c:pt>
                 <c:pt idx="47">
-                  <c:v>272.583333333333</c:v>
+                  <c:v>274.483333333333</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>270.6</c:v>
+                  <c:v>274.2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>268.85</c:v>
+                  <c:v>273.483333333333</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>267.933333333333</c:v>
+                  <c:v>271.2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>266.05</c:v>
+                  <c:v>268.95</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>263.966666666666</c:v>
+                  <c:v>268.033333333333</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>261.466666666666</c:v>
+                  <c:v>266.2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>258.883333333333</c:v>
+                  <c:v>264.116666666666</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>257.383333333333</c:v>
+                  <c:v>261.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>254.3</c:v>
+                  <c:v>260.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>252.216666666666</c:v>
+                  <c:v>257.25</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>250.133333333333</c:v>
+                  <c:v>254.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>248.166666666666</c:v>
+                  <c:v>251.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>245.583333333333</c:v>
+                  <c:v>249.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>243.166666666666</c:v>
+                  <c:v>246.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>240.333333333333</c:v>
+                  <c:v>244.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>237.916666666666</c:v>
+                  <c:v>242.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>235.333333333333</c:v>
+                  <c:v>239.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>232.75</c:v>
+                  <c:v>237.25</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>230.666666666666</c:v>
+                  <c:v>234.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>228.0</c:v>
+                  <c:v>232.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>225.916666666666</c:v>
+                  <c:v>229.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>223.5</c:v>
+                  <c:v>226.5</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>221.0</c:v>
+                  <c:v>224.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>218.75</c:v>
+                  <c:v>221.25</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>216.583333333333</c:v>
+                  <c:v>218.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>214.083333333333</c:v>
+                  <c:v>215.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>212.333333333333</c:v>
+                  <c:v>212.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>210.5</c:v>
+                  <c:v>209.5</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>208.583333333333</c:v>
+                  <c:v>206.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>206.083333333333</c:v>
+                  <c:v>203.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>203.25</c:v>
+                  <c:v>201.75</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -7971,11 +6073,11 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AC$1</c:f>
+              <c:f>Sheet1!$AB$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Taste 0</c:v>
+                  <c:v>Taste 1 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7985,246 +6087,246 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AC$2:$AC$82</c:f>
+              <c:f>Sheet1!$AB$2:$AB$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>2.9</c:v>
+                  <c:v>2.63333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.73333333333333</c:v>
+                  <c:v>6.06666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.6</c:v>
+                  <c:v>12.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.5833333333333</c:v>
+                  <c:v>19.35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.5166666666666</c:v>
+                  <c:v>25.6166666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.7666666666666</c:v>
+                  <c:v>33.0333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.5166666666666</c:v>
+                  <c:v>42.2833333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47.7666666666666</c:v>
+                  <c:v>52.0333333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>54.0166666666666</c:v>
+                  <c:v>60.7833333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>62.2666666666666</c:v>
+                  <c:v>67.5333333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>69.7666666666666</c:v>
+                  <c:v>75.0333333333333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>76.0166666666666</c:v>
+                  <c:v>83.7833333333333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>84.7666666666666</c:v>
+                  <c:v>90.0333333333333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>93.2666666666666</c:v>
+                  <c:v>96.5333333333333</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>100.516666666666</c:v>
+                  <c:v>104.283333333333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>107.016666666666</c:v>
+                  <c:v>112.45</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>112.816666666666</c:v>
+                  <c:v>121.183333333333</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>119.233333333333</c:v>
+                  <c:v>128.433333333333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>124.966666666666</c:v>
+                  <c:v>137.366666666666</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>132.583333333333</c:v>
+                  <c:v>144.35</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>139.433333333333</c:v>
+                  <c:v>151.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>145.9</c:v>
+                  <c:v>158.233333333333</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>153.866666666666</c:v>
+                  <c:v>164.466666666666</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>160.333333333333</c:v>
+                  <c:v>170.266666666666</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>166.983333333333</c:v>
+                  <c:v>177.15</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>173.616666666666</c:v>
+                  <c:v>184.383333333333</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>181.683333333333</c:v>
+                  <c:v>189.383333333333</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>187.116666666666</c:v>
+                  <c:v>197.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>194.5</c:v>
+                  <c:v>203.633333333333</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>201.433333333333</c:v>
+                  <c:v>210.1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>208.766666666666</c:v>
+                  <c:v>216.433333333333</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>215.733333333333</c:v>
+                  <c:v>222.8</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>221.05</c:v>
+                  <c:v>229.15</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>225.766666666666</c:v>
+                  <c:v>235.7</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>232.033333333333</c:v>
+                  <c:v>242.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>238.483333333333</c:v>
+                  <c:v>246.183333333333</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>243.066666666666</c:v>
+                  <c:v>252.2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>248.733333333333</c:v>
+                  <c:v>258.266666666666</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>254.666666666666</c:v>
+                  <c:v>262.2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>259.166666666666</c:v>
+                  <c:v>265.433333333333</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>262.2</c:v>
+                  <c:v>270.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>265.833333333333</c:v>
+                  <c:v>274.3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>268.7</c:v>
+                  <c:v>276.633333333333</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>271.083333333333</c:v>
+                  <c:v>278.183333333333</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>273.166666666666</c:v>
+                  <c:v>277.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>274.5</c:v>
+                  <c:v>277.033333333333</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>274.95</c:v>
+                  <c:v>275.116666666666</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>275.116666666666</c:v>
+                  <c:v>273.816666666666</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>274.866666666666</c:v>
+                  <c:v>271.933333333333</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>274.7</c:v>
+                  <c:v>269.766666666666</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>273.533333333333</c:v>
+                  <c:v>266.933333333333</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>271.833333333333</c:v>
+                  <c:v>265.1</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>269.55</c:v>
+                  <c:v>263.516666666666</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>267.4</c:v>
+                  <c:v>260.933333333333</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>265.233333333333</c:v>
+                  <c:v>258.1</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>263.733333333333</c:v>
+                  <c:v>255.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>262.583333333333</c:v>
+                  <c:v>252.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>260.166666666666</c:v>
+                  <c:v>249.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>257.5</c:v>
+                  <c:v>247.5</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>255.083333333333</c:v>
+                  <c:v>244.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>252.666666666666</c:v>
+                  <c:v>242.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>249.666666666666</c:v>
+                  <c:v>240.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>247.666666666666</c:v>
+                  <c:v>237.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>245.166666666666</c:v>
+                  <c:v>234.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>242.916666666666</c:v>
+                  <c:v>232.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>240.0</c:v>
+                  <c:v>230.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>237.5</c:v>
+                  <c:v>227.5</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>234.75</c:v>
+                  <c:v>225.25</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>232.75</c:v>
+                  <c:v>222.25</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>230.0</c:v>
+                  <c:v>220.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>227.083333333333</c:v>
+                  <c:v>217.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>225.0</c:v>
+                  <c:v>215.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>222.333333333333</c:v>
+                  <c:v>212.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>219.666666666666</c:v>
+                  <c:v>210.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>216.5</c:v>
+                  <c:v>208.5</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>213.416666666666</c:v>
+                  <c:v>206.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>209.916666666666</c:v>
+                  <c:v>205.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>206.333333333333</c:v>
+                  <c:v>203.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>203.333333333333</c:v>
+                  <c:v>201.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>200.0</c:v>
@@ -8244,20 +6346,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2125564616"/>
-        <c:axId val="-2113438584"/>
+        <c:axId val="2102144856"/>
+        <c:axId val="2103037688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2125564616"/>
+        <c:axId val="2102144856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113438584"/>
+        <c:crossAx val="2103037688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8265,18 +6386,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2113438584"/>
+        <c:axId val="2103037688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Accumulated Payoff</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125564616"/>
+        <c:crossAx val="2102144856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8333,19 +6473,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8363,19 +6503,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8398,23 +6538,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1000" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="800" connectionId="9" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1000" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="100_1" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="700" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="200" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="600" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="300" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="500" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8422,15 +6562,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="500" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="300" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="600" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="200" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="700" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="100_1" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8757,8 +6897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AI14" sqref="AI14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
